--- a/nm2AllConds.xlsx
+++ b/nm2AllConds.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allenine\Documents\GitHub\Psychophysics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen52\Documents\GitHub\Psychophysics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data From Script" sheetId="1" r:id="rId1"/>
-    <sheet name="Colored Table By Comparison" sheetId="2" r:id="rId2"/>
+    <sheet name="Data From Script - Means" sheetId="1" r:id="rId1"/>
+    <sheet name="Data From Script - Medians" sheetId="3" r:id="rId2"/>
+    <sheet name="Colored Table - Means" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="41">
   <si>
     <t>AAA</t>
   </si>
@@ -543,13 +544,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:Y39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -661,16 +662,16 @@
         <v>179.95652173913044</v>
       </c>
       <c r="M2">
-        <v>219.90416666666667</v>
+        <v>218.84347826086955</v>
       </c>
       <c r="N2">
         <v>180.37777777777779</v>
       </c>
       <c r="O2">
-        <v>199.52702702702697</v>
+        <v>199.08888888888885</v>
       </c>
       <c r="P2">
-        <v>205.625</v>
+        <v>209.92222222222222</v>
       </c>
       <c r="Q2">
         <v>174.60540540540541</v>
@@ -679,7 +680,7 @@
         <v>165.23142857142858</v>
       </c>
       <c r="T2">
-        <v>211.23913043478257</v>
+        <v>214.33636363636359</v>
       </c>
       <c r="U2">
         <v>210.49444444444441</v>
@@ -691,13 +692,13 @@
         <v>248.53043478260869</v>
       </c>
       <c r="X2">
-        <v>223.22142857142853</v>
+        <v>217.87999999999997</v>
       </c>
       <c r="Y2">
         <v>219.91052631578953</v>
       </c>
       <c r="Z2">
-        <v>230.8133333333333</v>
+        <v>236.55714285714279</v>
       </c>
       <c r="AA2">
         <v>245.58372093023249</v>
@@ -733,15 +734,15 @@
         <v>185.46250000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>254.57285601341596</v>
+        <v>254.86392481063177</v>
       </c>
       <c r="C3">
-        <v>43.119960851465507</v>
+        <v>43.071118303346537</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -834,15 +835,15 @@
         <v>259.22380952380951</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>280.46545550052167</v>
+        <v>280.36154889379497</v>
       </c>
       <c r="C4">
-        <v>58.1713405583236</v>
+        <v>58.209321249180867</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -860,25 +861,25 @@
         <v>193.625</v>
       </c>
       <c r="L4">
-        <v>197.90399999999994</v>
+        <v>199.29166666666663</v>
       </c>
       <c r="M4">
         <v>181.04545454545453</v>
       </c>
       <c r="N4">
-        <v>191.31176470588233</v>
+        <v>193.01249999999999</v>
       </c>
       <c r="O4">
-        <v>185.32142857142858</v>
+        <v>185.43793103448274</v>
       </c>
       <c r="P4">
         <v>199.06</v>
       </c>
       <c r="Q4">
-        <v>193.71724137931028</v>
+        <v>195.6964285714285</v>
       </c>
       <c r="R4">
-        <v>182.94615384615383</v>
+        <v>182.71599999999998</v>
       </c>
       <c r="T4">
         <v>263.79999999999995</v>
@@ -908,7 +909,7 @@
         <v>254.30000000000004</v>
       </c>
       <c r="AD4">
-        <v>179.45</v>
+        <v>177.43333333333334</v>
       </c>
       <c r="AE4">
         <v>202.66562500000003</v>
@@ -920,10 +921,10 @@
         <v>184.31500000000003</v>
       </c>
       <c r="AH4">
-        <v>176.53999999999996</v>
+        <v>178.4028571428571</v>
       </c>
       <c r="AI4">
-        <v>186.93488372093026</v>
+        <v>187.11904761904765</v>
       </c>
       <c r="AJ4">
         <v>194.26000000000002</v>
@@ -935,15 +936,15 @@
         <v>208.68400000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>218.7158840424282</v>
+        <v>218.60263376905681</v>
       </c>
       <c r="C5">
-        <v>29.045750949176728</v>
+        <v>29.311607403210704</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -997,7 +998,7 @@
         <v>208.33999999999997</v>
       </c>
       <c r="Y5">
-        <v>217.83043478260871</v>
+        <v>217.49545454545458</v>
       </c>
       <c r="Z5">
         <v>230.1</v>
@@ -1036,15 +1037,15 @@
         <v>173.92941176470586</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>230.1088530328841</v>
+        <v>230.21641773779365</v>
       </c>
       <c r="C6">
-        <v>33.62156936863154</v>
+        <v>33.589387542779157</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1062,10 +1063,10 @@
         <v>227.61999999999998</v>
       </c>
       <c r="L6">
-        <v>282.63809523809516</v>
+        <v>286.10454545454542</v>
       </c>
       <c r="M6">
-        <v>278.3368421052632</v>
+        <v>275.86470588235295</v>
       </c>
       <c r="N6">
         <v>191.82</v>
@@ -1074,7 +1075,7 @@
         <v>220.71515151515146</v>
       </c>
       <c r="P6">
-        <v>325.91818181818184</v>
+        <v>318.74166666666667</v>
       </c>
       <c r="Q6">
         <v>213.7551724137931</v>
@@ -1083,10 +1084,10 @@
         <v>200.42571428571426</v>
       </c>
       <c r="T6">
-        <v>261.79999999999995</v>
+        <v>263.86874999999998</v>
       </c>
       <c r="U6">
-        <v>277.75333333333333</v>
+        <v>274.6875</v>
       </c>
       <c r="V6">
         <v>282.33000000000004</v>
@@ -1098,7 +1099,7 @@
         <v>265.4375</v>
       </c>
       <c r="Y6">
-        <v>255.41818181818186</v>
+        <v>257.28750000000002</v>
       </c>
       <c r="Z6">
         <v>307.93</v>
@@ -1110,10 +1111,10 @@
         <v>271.53142857142865</v>
       </c>
       <c r="AD6">
-        <v>203.55555555555554</v>
+        <v>201.90857142857141</v>
       </c>
       <c r="AE6">
-        <v>209.37407407407403</v>
+        <v>211.22499999999994</v>
       </c>
       <c r="AF6">
         <v>206.92558139534881</v>
@@ -1137,15 +1138,15 @@
         <v>209.74499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>284.82432903482828</v>
+        <v>284.73964394867261</v>
       </c>
       <c r="C7">
-        <v>79.099966782793942</v>
+        <v>78.869625004194177</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -1238,15 +1239,15 @@
         <v>210.24545454545452</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>237.09296844449932</v>
+        <v>237.19035762810222</v>
       </c>
       <c r="C8">
-        <v>37.873514443030125</v>
+        <v>37.833606796437699</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -1279,7 +1280,7 @@
         <v>243.27894736842106</v>
       </c>
       <c r="Q8">
-        <v>217.13461538461539</v>
+        <v>216.136</v>
       </c>
       <c r="R8">
         <v>212.74062499999991</v>
@@ -1300,7 +1301,7 @@
         <v>256.31111111111113</v>
       </c>
       <c r="Y8">
-        <v>262.60434782608689</v>
+        <v>258.7954545454545</v>
       </c>
       <c r="Z8">
         <v>247.38888888888889</v>
@@ -1315,16 +1316,16 @@
         <v>202.28571428571433</v>
       </c>
       <c r="AE8">
-        <v>200.77499999999995</v>
+        <v>200.25483870967739</v>
       </c>
       <c r="AF8">
-        <v>207.7288888888888</v>
+        <v>206.84318181818171</v>
       </c>
       <c r="AG8">
         <v>212.42999999999998</v>
       </c>
       <c r="AH8">
-        <v>271.60714285714289</v>
+        <v>273.38888888888891</v>
       </c>
       <c r="AI8">
         <v>211.7269230769231</v>
@@ -1339,15 +1340,15 @@
         <v>200.80000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>223.08122002838618</v>
+        <v>223.07445079761695</v>
       </c>
       <c r="C9">
-        <v>38.731280528978395</v>
+        <v>38.73852710283326</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -1440,7 +1441,7 @@
         <v>231.35000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>33</v>
       </c>
@@ -1532,15 +1533,15 @@
         <v>258.79999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>253.60926494002311</v>
+        <v>253.76120562242249</v>
       </c>
       <c r="C11">
-        <v>29.119662848025609</v>
+        <v>29.007325967711644</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -1558,7 +1559,7 @@
         <v>208.01333333333335</v>
       </c>
       <c r="L11" s="3">
-        <v>235.49047619047624</v>
+        <v>239.19500000000002</v>
       </c>
       <c r="M11" s="3">
         <v>267.52272727272731</v>
@@ -1582,7 +1583,7 @@
         <v>253.0888888888889</v>
       </c>
       <c r="U11">
-        <v>246.54000000000002</v>
+        <v>248.82105263157897</v>
       </c>
       <c r="V11">
         <v>272.74210526315784</v>
@@ -1591,7 +1592,7 @@
         <v>365.83157894736837</v>
       </c>
       <c r="X11">
-        <v>247.33</v>
+        <v>248.63333333333333</v>
       </c>
       <c r="Y11">
         <v>304.11851851851856</v>
@@ -1600,7 +1601,7 @@
         <v>254.69230769230762</v>
       </c>
       <c r="AA11">
-        <v>249.97000000000003</v>
+        <v>252.48947368421054</v>
       </c>
       <c r="AB11">
         <v>265.36111111111114</v>
@@ -1609,10 +1610,10 @@
         <v>195.55806451612904</v>
       </c>
       <c r="AE11">
-        <v>189.77948717948721</v>
+        <v>189.43947368421058</v>
       </c>
       <c r="AF11">
-        <v>244.18085106382983</v>
+        <v>244.67608695652174</v>
       </c>
       <c r="AG11">
         <v>189.8857142857143</v>
@@ -1621,7 +1622,7 @@
         <v>203.05185185185184</v>
       </c>
       <c r="AI11">
-        <v>191.5926829268293</v>
+        <v>192.04250000000005</v>
       </c>
       <c r="AJ11">
         <v>203.17500000000001</v>
@@ -1630,18 +1631,18 @@
         <v>206.6</v>
       </c>
       <c r="AL11">
-        <v>198.63333333333338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+        <v>199.57500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>260.6063252881163</v>
+        <v>260.64380674767636</v>
       </c>
       <c r="C12">
-        <v>28.193030045250961</v>
+        <v>28.128441582774247</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
@@ -1734,15 +1735,15 @@
         <v>202.61111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>272.52752781092607</v>
+        <v>273.23092177080883</v>
       </c>
       <c r="C13">
-        <v>35.917090347744448</v>
+        <v>36.667375736290978</v>
       </c>
       <c r="E13" t="s">
         <v>36</v>
@@ -1835,15 +1836,15 @@
         <v>224.32857142857139</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>291.6964260347778</v>
+        <v>291.68715050638463</v>
       </c>
       <c r="C14">
-        <v>40.15082689430637</v>
+        <v>40.150986889331534</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -1921,7 +1922,7 @@
         <v>346.68</v>
       </c>
       <c r="AH14">
-        <v>209.45555555555558</v>
+        <v>209.16250000000002</v>
       </c>
       <c r="AI14">
         <v>217.76428571428573</v>
@@ -1936,15 +1937,15 @@
         <v>241.75</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>246.67661878538607</v>
+        <v>246.69991010191268</v>
       </c>
       <c r="C15">
-        <v>25.488280292162809</v>
+        <v>25.475246876401165</v>
       </c>
       <c r="J15">
         <v>242.41249999999999</v>
@@ -2028,15 +2029,15 @@
         <v>197.58571428571426</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>262.82402329265574</v>
+        <v>262.49117797363988</v>
       </c>
       <c r="C16">
-        <v>32.99947939375911</v>
+        <v>33.41326710138835</v>
       </c>
       <c r="J16">
         <v>203.18214285714288</v>
@@ -2120,15 +2121,15 @@
         <v>230.0588235294118</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>299.40085361821957</v>
+        <v>299.33906440253332</v>
       </c>
       <c r="C17">
-        <v>60.783167686758887</v>
+        <v>60.603945324313926</v>
       </c>
       <c r="J17">
         <v>214.29000000000002</v>
@@ -2164,7 +2165,7 @@
         <v>257.66666666666669</v>
       </c>
       <c r="V17">
-        <v>261.33199999999994</v>
+        <v>260.5333333333333</v>
       </c>
       <c r="W17">
         <v>283.66399999999999</v>
@@ -2212,15 +2213,15 @@
         <v>198.40416666666661</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>279.60262393745171</v>
+        <v>279.5411111313723</v>
       </c>
       <c r="C18">
-        <v>33.00635829860105</v>
+        <v>33.094169419450431</v>
       </c>
       <c r="J18">
         <v>165.97894736842102</v>
@@ -2238,7 +2239,7 @@
         <v>162.94545454545454</v>
       </c>
       <c r="O18">
-        <v>159.26923076923077</v>
+        <v>160.19199999999998</v>
       </c>
       <c r="P18">
         <v>194.88888888888886</v>
@@ -2283,7 +2284,7 @@
         <v>155.58000000000001</v>
       </c>
       <c r="AF18">
-        <v>162.75769230769231</v>
+        <v>162.672</v>
       </c>
       <c r="AG18">
         <v>155.95416666666665</v>
@@ -2292,7 +2293,7 @@
         <v>154.04090909090908</v>
       </c>
       <c r="AI18">
-        <v>165.63714285714286</v>
+        <v>165.78235294117644</v>
       </c>
       <c r="AJ18">
         <v>160.98636363636362</v>
@@ -2301,18 +2302,18 @@
         <v>153.74761904761905</v>
       </c>
       <c r="AL18">
-        <v>156.11249999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+        <v>156.4478260869565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>274.24466299673696</v>
+        <v>274.27204084303679</v>
       </c>
       <c r="C19">
-        <v>32.731369839394787</v>
+        <v>32.70538812137039</v>
       </c>
       <c r="J19">
         <v>189.37500000000003</v>
@@ -2348,7 +2349,7 @@
         <v>228.14210526315793</v>
       </c>
       <c r="V19">
-        <v>221.5</v>
+        <v>220.57222222222222</v>
       </c>
       <c r="W19">
         <v>279.75714285714287</v>
@@ -2360,7 +2361,7 @@
         <v>220.03333333333333</v>
       </c>
       <c r="Z19">
-        <v>300.95714285714286</v>
+        <v>293.11249999999995</v>
       </c>
       <c r="AA19">
         <v>243.70333333333332</v>
@@ -2396,7 +2397,7 @@
         <v>188.52380952380952</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>179.98749999999998</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>274.13</v>
       </c>
       <c r="X20">
-        <v>212.75</v>
+        <v>217.58</v>
       </c>
       <c r="Y20">
         <v>224.69</v>
@@ -2479,15 +2480,15 @@
         <v>185.29999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21">
-        <v>204.47334130916451</v>
+        <v>204.36558687405713</v>
       </c>
       <c r="C21">
-        <v>23.813309102178469</v>
+        <v>23.88340817727185</v>
       </c>
       <c r="J21">
         <v>235.34444444444443</v>
@@ -2571,15 +2572,15 @@
         <v>216.40588235294118</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22">
-        <v>206.23751092552646</v>
+        <v>206.26665066494783</v>
       </c>
       <c r="C22">
-        <v>22.313433051951009</v>
+        <v>22.335333958352905</v>
       </c>
       <c r="J22">
         <v>355.57499999999999</v>
@@ -2663,15 +2664,15 @@
         <v>204.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23">
-        <v>208.08240852372484</v>
+        <v>208.06840371532167</v>
       </c>
       <c r="C23">
-        <v>26.003695577371808</v>
+        <v>26.030006664353316</v>
       </c>
       <c r="J23">
         <v>211.35555555555553</v>
@@ -2695,7 +2696,7 @@
         <v>336.6</v>
       </c>
       <c r="Q23">
-        <v>230.10937499999997</v>
+        <v>231.03870967741932</v>
       </c>
       <c r="R23">
         <v>201.25</v>
@@ -2755,7 +2756,7 @@
         <v>213.84999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>202.85833333333335</v>
       </c>
       <c r="AI24">
-        <v>202.29499999999999</v>
+        <v>200.7157894736842</v>
       </c>
       <c r="AJ24">
         <v>218.26250000000002</v>
@@ -2847,15 +2848,15 @@
         <v>214.9111111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25">
-        <v>202.32596379438203</v>
+        <v>202.45471113814705</v>
       </c>
       <c r="C25">
-        <v>25.46764131329363</v>
+        <v>25.541725464171812</v>
       </c>
       <c r="J25">
         <v>191.78421052631577</v>
@@ -2870,7 +2871,7 @@
         <v>249.8458333333333</v>
       </c>
       <c r="N25">
-        <v>169.04166666666666</v>
+        <v>163.36363636363637</v>
       </c>
       <c r="O25">
         <v>203.81111111111107</v>
@@ -2900,16 +2901,16 @@
         <v>211.27000000000004</v>
       </c>
       <c r="Y25">
-        <v>227.03928571428568</v>
+        <v>216.48571428571427</v>
       </c>
       <c r="Z25">
         <v>252.1</v>
       </c>
       <c r="AA25">
-        <v>245.62000000000003</v>
+        <v>241.00909090909093</v>
       </c>
       <c r="AB25">
-        <v>243.65625</v>
+        <v>244.58709677419355</v>
       </c>
       <c r="AD25">
         <v>182.78571428571425</v>
@@ -2939,15 +2940,15 @@
         <v>170.74545454545452</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>209.47766455207693</v>
+        <v>209.47864842353479</v>
       </c>
       <c r="C26">
-        <v>25.634457601450052</v>
+        <v>25.641921280653218</v>
       </c>
       <c r="J26">
         <v>233.4</v>
@@ -3019,7 +3020,7 @@
         <v>231.72058823529414</v>
       </c>
       <c r="AI26">
-        <v>229.28474576271188</v>
+        <v>229.80344827586208</v>
       </c>
       <c r="AJ26">
         <v>231.61500000000001</v>
@@ -3031,15 +3032,15 @@
         <v>214.60555555555558</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27">
-        <v>203.77839210199983</v>
+        <v>203.79311826832844</v>
       </c>
       <c r="C27">
-        <v>23.798569134846055</v>
+        <v>23.798533369114004</v>
       </c>
       <c r="J27">
         <v>210.5190476190476</v>
@@ -3063,7 +3064,7 @@
         <v>277.18888888888887</v>
       </c>
       <c r="Q27">
-        <v>250.54242424242423</v>
+        <v>251.94374999999999</v>
       </c>
       <c r="R27">
         <v>238.42368421052632</v>
@@ -3108,7 +3109,7 @@
         <v>212.78095238095241</v>
       </c>
       <c r="AH27">
-        <v>202.79655172413794</v>
+        <v>202.71428571428575</v>
       </c>
       <c r="AI27">
         <v>208.92812500000002</v>
@@ -3123,7 +3124,7 @@
         <v>210.84545454545457</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3164,19 +3165,19 @@
         <v>274.71666666666664</v>
       </c>
       <c r="U28">
-        <v>268.00555555555553</v>
+        <v>270.06470588235288</v>
       </c>
       <c r="V28">
-        <v>250.84482758620686</v>
+        <v>252.40999999999997</v>
       </c>
       <c r="W28">
-        <v>291.17727272727274</v>
+        <v>290.86190476190484</v>
       </c>
       <c r="X28">
         <v>245.76470588235293</v>
       </c>
       <c r="Y28">
-        <v>268.78787878787881</v>
+        <v>270.01875000000001</v>
       </c>
       <c r="Z28">
         <v>270.10624999999999</v>
@@ -3203,7 +3204,7 @@
         <v>197.09189189189181</v>
       </c>
       <c r="AI28">
-        <v>195.34313725490199</v>
+        <v>195.27600000000007</v>
       </c>
       <c r="AJ28">
         <v>184.83333333333331</v>
@@ -3215,15 +3216,15 @@
         <v>202.12692307692305</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
-        <v>209.45319204567954</v>
+        <v>209.49075065608022</v>
       </c>
       <c r="C29">
-        <v>22.801562364487598</v>
+        <v>22.764853221579795</v>
       </c>
       <c r="J29">
         <v>278.45</v>
@@ -3259,7 +3260,7 @@
         <v>265.61666666666667</v>
       </c>
       <c r="V29">
-        <v>321.83</v>
+        <v>333.46666666666664</v>
       </c>
       <c r="W29">
         <v>298.78000000000009</v>
@@ -3268,7 +3269,7 @@
         <v>262.12</v>
       </c>
       <c r="Y29">
-        <v>272.48823529411766</v>
+        <v>272.76875000000001</v>
       </c>
       <c r="Z29">
         <v>276.25</v>
@@ -3307,7 +3308,7 @@
         <v>243.86666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J30">
         <v>235.09444444444443</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>290.53750000000002</v>
       </c>
       <c r="N30">
-        <v>243.88750000000002</v>
+        <v>244.01428571428573</v>
       </c>
       <c r="O30">
         <v>240.14571428571429</v>
@@ -3378,10 +3379,10 @@
         <v>216.78064516129035</v>
       </c>
       <c r="AI30">
-        <v>211.37906976744188</v>
+        <v>211.76097560975612</v>
       </c>
       <c r="AJ30">
-        <v>203.47931034482758</v>
+        <v>203.98</v>
       </c>
       <c r="AK30">
         <v>228.45</v>
@@ -3390,7 +3391,7 @@
         <v>212.25217391304344</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>243.21999999999997</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>203.37500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J32">
         <v>196.09047619047618</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>201.108</v>
       </c>
     </row>
-    <row r="33" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J33">
         <v>233.08846153846156</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>206.56</v>
       </c>
       <c r="L33">
-        <v>231.61785714285719</v>
+        <v>232.95555555555555</v>
       </c>
       <c r="M33">
         <v>295.76842105263154</v>
@@ -3573,7 +3574,7 @@
         <v>237.97142857142859</v>
       </c>
       <c r="O33">
-        <v>235.50689655172414</v>
+        <v>238.56296296296293</v>
       </c>
       <c r="P33">
         <v>283.76923076923072</v>
@@ -3624,7 +3625,7 @@
         <v>189.44499999999999</v>
       </c>
       <c r="AH33">
-        <v>189.12758620689658</v>
+        <v>190.23571428571432</v>
       </c>
       <c r="AI33">
         <v>202.28809523809525</v>
@@ -3639,7 +3640,7 @@
         <v>195.4909090909091</v>
       </c>
     </row>
-    <row r="34" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>192.05384615384614</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>226.16666666666666</v>
       </c>
       <c r="V34">
-        <v>285.7</v>
+        <v>298.14</v>
       </c>
       <c r="W34">
         <v>368.73999999999995</v>
@@ -3722,7 +3723,7 @@
         <v>228.96666666666667</v>
       </c>
     </row>
-    <row r="35" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J35">
         <v>257.21111111111105</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>226.61052631578946</v>
       </c>
     </row>
-    <row r="37" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J37">
         <f>AVERAGE(J2:J35)</f>
         <v>224.00814362115807</v>
@@ -3816,31 +3817,31 @@
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>254.57285601341596</v>
+        <v>254.86392481063177</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>280.46545550052167</v>
+        <v>280.36154889379497</v>
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>218.7158840424282</v>
+        <v>218.60263376905681</v>
       </c>
       <c r="O37">
         <f t="shared" si="0"/>
-        <v>230.1088530328841</v>
+        <v>230.21641773779365</v>
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
-        <v>284.82432903482828</v>
+        <v>284.73964394867261</v>
       </c>
       <c r="Q37">
         <f t="shared" si="0"/>
-        <v>237.09296844449932</v>
+        <v>237.19035762810222</v>
       </c>
       <c r="R37">
         <f t="shared" si="0"/>
-        <v>223.08122002838618</v>
+        <v>223.07445079761695</v>
       </c>
       <c r="S37" t="e">
         <f t="shared" si="0"/>
@@ -3848,39 +3849,39 @@
       </c>
       <c r="T37">
         <f t="shared" si="0"/>
-        <v>253.60926494002311</v>
+        <v>253.76120562242249</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>260.6063252881163</v>
+        <v>260.64380674767636</v>
       </c>
       <c r="V37">
         <f t="shared" si="0"/>
-        <v>272.52752781092607</v>
+        <v>273.23092177080883</v>
       </c>
       <c r="W37">
         <f t="shared" si="0"/>
-        <v>291.6964260347778</v>
+        <v>291.68715050638463</v>
       </c>
       <c r="X37">
         <f t="shared" si="0"/>
-        <v>246.67661878538607</v>
+        <v>246.69991010191268</v>
       </c>
       <c r="Y37">
         <f t="shared" si="0"/>
-        <v>262.82402329265574</v>
+        <v>262.49117797363988</v>
       </c>
       <c r="Z37">
         <f t="shared" si="0"/>
-        <v>299.40085361821957</v>
+        <v>299.33906440253332</v>
       </c>
       <c r="AA37">
         <f t="shared" si="0"/>
-        <v>279.60262393745171</v>
+        <v>279.5411111313723</v>
       </c>
       <c r="AB37">
         <f t="shared" si="0"/>
-        <v>274.24466299673696</v>
+        <v>274.27204084303679</v>
       </c>
       <c r="AC37" t="e">
         <f t="shared" si="0"/>
@@ -3888,15 +3889,15 @@
       </c>
       <c r="AD37">
         <f t="shared" si="0"/>
-        <v>204.47334130916451</v>
+        <v>204.36558687405713</v>
       </c>
       <c r="AE37">
         <f t="shared" si="0"/>
-        <v>206.23751092552646</v>
+        <v>206.26665066494783</v>
       </c>
       <c r="AF37">
         <f t="shared" si="0"/>
-        <v>208.08240852372484</v>
+        <v>208.06840371532167</v>
       </c>
       <c r="AG37">
         <f t="shared" si="0"/>
@@ -3904,15 +3905,15 @@
       </c>
       <c r="AH37">
         <f t="shared" si="0"/>
-        <v>202.32596379438203</v>
+        <v>202.45471113814705</v>
       </c>
       <c r="AI37">
         <f t="shared" si="0"/>
-        <v>209.47766455207693</v>
+        <v>209.47864842353479</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="0"/>
-        <v>203.77839210199983</v>
+        <v>203.79311826832844</v>
       </c>
       <c r="AK37">
         <f t="shared" si="0"/>
@@ -3920,10 +3921,10 @@
       </c>
       <c r="AL37">
         <f t="shared" si="0"/>
-        <v>209.45319204567954</v>
-      </c>
-    </row>
-    <row r="39" spans="10:38" x14ac:dyDescent="0.3">
+        <v>209.49075065608022</v>
+      </c>
+    </row>
+    <row r="39" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L39" t="s">
         <v>27</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L40">
         <v>181.94711864406784</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L41">
         <v>240.89183673469375</v>
       </c>
@@ -4059,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L42">
         <v>187.25000000000003</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L43">
         <v>166.32222222222231</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L44">
         <v>222.07046632124349</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L45">
         <v>213.415824915825</v>
       </c>
@@ -4243,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L46">
         <v>210.06329787234048</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L47">
         <v>232.60080321285139</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:38" x14ac:dyDescent="0.25">
       <c r="L48">
         <v>264.32211055276389</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L49">
         <v>222.93409090909097</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L50">
         <v>183.95486111111106</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L51">
         <v>238.68526315789481</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L52">
         <v>258.33505154639175</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L53">
         <v>189.68762214983707</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L54">
         <v>200.57236180904525</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L55">
         <v>192.91785714285714</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L56">
         <v>165.70684210526323</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L57">
         <v>178.72565445026166</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L58">
         <v>178.53210702341147</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L59">
         <v>229.97986577181214</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L60">
         <v>207.9260135135134</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L61">
         <v>215.11450777202074</v>
       </c>
@@ -4979,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L62">
         <v>200.5362416107383</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>262.77222222222218</v>
       </c>
       <c r="Q62" s="5">
-        <v>264.06538461538503</v>
+        <v>264.06538461538463</v>
       </c>
       <c r="R62" s="6">
         <v>270.01818181818186</v>
@@ -5025,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L63">
         <v>179.89424083769643</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L64">
         <v>241.04874371859302</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L65">
         <v>230.81015228426398</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L66">
         <v>211.53787878787878</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L67">
         <v>192.79893048128326</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L68">
         <v>239.83484848484855</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L69">
         <v>213.11717171717169</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L70">
         <v>193.30558375634519</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L71">
         <v>208.3743589743591</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L72">
         <v>208.84247491638789</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="12:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="12:25" x14ac:dyDescent="0.25">
       <c r="L73">
         <v>246.58241206030158</v>
       </c>
@@ -5529,6 +5530,3205 @@
       <c r="Y73" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>212.38529411764711</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1">
+        <v>195.85882352941175</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>223.27352941176474</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>226.69558823529414</v>
+      </c>
+      <c r="J2">
+        <v>211.75</v>
+      </c>
+      <c r="K2">
+        <v>183.1</v>
+      </c>
+      <c r="L2">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="M2">
+        <v>182.5</v>
+      </c>
+      <c r="N2">
+        <v>174.7</v>
+      </c>
+      <c r="O2">
+        <v>185</v>
+      </c>
+      <c r="P2">
+        <v>199.4</v>
+      </c>
+      <c r="Q2">
+        <v>170.5</v>
+      </c>
+      <c r="R2">
+        <v>163.5</v>
+      </c>
+      <c r="T2">
+        <v>214</v>
+      </c>
+      <c r="U2">
+        <v>212.64999999999998</v>
+      </c>
+      <c r="V2">
+        <v>225.95</v>
+      </c>
+      <c r="W2">
+        <v>236.5</v>
+      </c>
+      <c r="X2">
+        <v>206.5</v>
+      </c>
+      <c r="Y2">
+        <v>216.1</v>
+      </c>
+      <c r="Z2">
+        <v>229.1</v>
+      </c>
+      <c r="AA2">
+        <v>236.8</v>
+      </c>
+      <c r="AB2">
+        <v>223.7</v>
+      </c>
+      <c r="AD2">
+        <v>174.5</v>
+      </c>
+      <c r="AE2">
+        <v>167.9</v>
+      </c>
+      <c r="AF2">
+        <v>164.4</v>
+      </c>
+      <c r="AG2">
+        <v>168.7</v>
+      </c>
+      <c r="AH2">
+        <v>157.4</v>
+      </c>
+      <c r="AI2">
+        <v>166.5</v>
+      </c>
+      <c r="AJ2">
+        <v>166.2</v>
+      </c>
+      <c r="AK2">
+        <v>167.14999999999998</v>
+      </c>
+      <c r="AL2">
+        <v>174.14999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>234.57500000000002</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3">
+        <v>190.16323529411761</v>
+      </c>
+      <c r="J3">
+        <v>279.5</v>
+      </c>
+      <c r="K3">
+        <v>297</v>
+      </c>
+      <c r="L3">
+        <v>290.35000000000002</v>
+      </c>
+      <c r="M3">
+        <v>376.7</v>
+      </c>
+      <c r="N3">
+        <v>235.45</v>
+      </c>
+      <c r="O3">
+        <v>287.10000000000002</v>
+      </c>
+      <c r="P3">
+        <v>395.3</v>
+      </c>
+      <c r="Q3">
+        <v>306.04999999999995</v>
+      </c>
+      <c r="R3">
+        <v>285.64999999999998</v>
+      </c>
+      <c r="T3">
+        <v>271.2</v>
+      </c>
+      <c r="U3">
+        <v>283.2</v>
+      </c>
+      <c r="V3">
+        <v>272.39999999999998</v>
+      </c>
+      <c r="W3">
+        <v>338.5</v>
+      </c>
+      <c r="X3">
+        <v>288.3</v>
+      </c>
+      <c r="Y3">
+        <v>292.60000000000002</v>
+      </c>
+      <c r="Z3">
+        <v>372.55</v>
+      </c>
+      <c r="AA3">
+        <v>317.2</v>
+      </c>
+      <c r="AB3">
+        <v>301.3</v>
+      </c>
+      <c r="AD3">
+        <v>236.8</v>
+      </c>
+      <c r="AE3">
+        <v>250.2</v>
+      </c>
+      <c r="AF3">
+        <v>250.15</v>
+      </c>
+      <c r="AG3">
+        <v>242.4</v>
+      </c>
+      <c r="AH3">
+        <v>235.1</v>
+      </c>
+      <c r="AI3">
+        <v>250.3</v>
+      </c>
+      <c r="AJ3">
+        <v>253</v>
+      </c>
+      <c r="AK3">
+        <v>232.05</v>
+      </c>
+      <c r="AL3">
+        <v>245.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>265.10588235294119</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>248.83382352941177</v>
+      </c>
+      <c r="J4">
+        <v>184.9</v>
+      </c>
+      <c r="K4">
+        <v>177.55</v>
+      </c>
+      <c r="L4">
+        <v>194.14999999999998</v>
+      </c>
+      <c r="M4">
+        <v>170.64999999999998</v>
+      </c>
+      <c r="N4">
+        <v>169.8</v>
+      </c>
+      <c r="O4">
+        <v>171.2</v>
+      </c>
+      <c r="P4">
+        <v>174</v>
+      </c>
+      <c r="Q4">
+        <v>176.1</v>
+      </c>
+      <c r="R4">
+        <v>177.2</v>
+      </c>
+      <c r="T4">
+        <v>254.10000000000002</v>
+      </c>
+      <c r="U4">
+        <v>260.14999999999998</v>
+      </c>
+      <c r="V4">
+        <v>238</v>
+      </c>
+      <c r="W4">
+        <v>232.14999999999998</v>
+      </c>
+      <c r="X4">
+        <v>254.45000000000002</v>
+      </c>
+      <c r="Y4">
+        <v>230.9</v>
+      </c>
+      <c r="Z4">
+        <v>276.3</v>
+      </c>
+      <c r="AA4">
+        <v>247.6</v>
+      </c>
+      <c r="AB4">
+        <v>248.75</v>
+      </c>
+      <c r="AD4">
+        <v>168.5</v>
+      </c>
+      <c r="AE4">
+        <v>182.5</v>
+      </c>
+      <c r="AF4">
+        <v>168.7</v>
+      </c>
+      <c r="AG4">
+        <v>173.60000000000002</v>
+      </c>
+      <c r="AH4">
+        <v>171.9</v>
+      </c>
+      <c r="AI4">
+        <v>175</v>
+      </c>
+      <c r="AJ4">
+        <v>172.85000000000002</v>
+      </c>
+      <c r="AK4">
+        <v>169</v>
+      </c>
+      <c r="AL4">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>210.44264705882352</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>214.73676470588239</v>
+      </c>
+      <c r="J5">
+        <v>177.4</v>
+      </c>
+      <c r="K5">
+        <v>188.2</v>
+      </c>
+      <c r="L5">
+        <v>177.10000000000002</v>
+      </c>
+      <c r="M5">
+        <v>163.5</v>
+      </c>
+      <c r="N5">
+        <v>166.2</v>
+      </c>
+      <c r="O5">
+        <v>167.5</v>
+      </c>
+      <c r="P5">
+        <v>171.85</v>
+      </c>
+      <c r="Q5">
+        <v>174.4</v>
+      </c>
+      <c r="R5">
+        <v>170.5</v>
+      </c>
+      <c r="T5">
+        <v>214</v>
+      </c>
+      <c r="U5">
+        <v>224.3</v>
+      </c>
+      <c r="V5">
+        <v>236.7</v>
+      </c>
+      <c r="W5">
+        <v>227.6</v>
+      </c>
+      <c r="X5">
+        <v>201.7</v>
+      </c>
+      <c r="Y5">
+        <v>211</v>
+      </c>
+      <c r="Z5">
+        <v>235.95</v>
+      </c>
+      <c r="AA5">
+        <v>221.8</v>
+      </c>
+      <c r="AB5">
+        <v>222</v>
+      </c>
+      <c r="AD5">
+        <v>169.75</v>
+      </c>
+      <c r="AE5">
+        <v>169.7</v>
+      </c>
+      <c r="AF5">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>167.05</v>
+      </c>
+      <c r="AH5">
+        <v>171.8</v>
+      </c>
+      <c r="AI5">
+        <v>164.7</v>
+      </c>
+      <c r="AJ5">
+        <v>163.35000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>178.3</v>
+      </c>
+      <c r="AL5">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>215.29999999999995</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>213.45588235294122</v>
+      </c>
+      <c r="J6">
+        <v>196.9</v>
+      </c>
+      <c r="K6">
+        <v>220.95</v>
+      </c>
+      <c r="L6">
+        <v>248.35000000000002</v>
+      </c>
+      <c r="M6">
+        <v>275.39999999999998</v>
+      </c>
+      <c r="N6">
+        <v>191.1</v>
+      </c>
+      <c r="O6">
+        <v>216</v>
+      </c>
+      <c r="P6">
+        <v>321.89999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>206.4</v>
+      </c>
+      <c r="R6">
+        <v>199.6</v>
+      </c>
+      <c r="T6">
+        <v>250.60000000000002</v>
+      </c>
+      <c r="U6">
+        <v>266.79999999999995</v>
+      </c>
+      <c r="V6">
+        <v>268.35000000000002</v>
+      </c>
+      <c r="W6">
+        <v>253.9</v>
+      </c>
+      <c r="X6">
+        <v>262.8</v>
+      </c>
+      <c r="Y6">
+        <v>251.55</v>
+      </c>
+      <c r="Z6">
+        <v>292</v>
+      </c>
+      <c r="AA6">
+        <v>270.04999999999995</v>
+      </c>
+      <c r="AB6">
+        <v>257.89999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>198.8</v>
+      </c>
+      <c r="AE6">
+        <v>205.89999999999998</v>
+      </c>
+      <c r="AF6">
+        <v>204.5</v>
+      </c>
+      <c r="AG6">
+        <v>198.5</v>
+      </c>
+      <c r="AH6">
+        <v>200.7</v>
+      </c>
+      <c r="AI6">
+        <v>207.2</v>
+      </c>
+      <c r="AJ6">
+        <v>202.05</v>
+      </c>
+      <c r="AK6">
+        <v>223.85</v>
+      </c>
+      <c r="AL6">
+        <v>213.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>269.5735294117647</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>246.50882352941179</v>
+      </c>
+      <c r="J7">
+        <v>222.75</v>
+      </c>
+      <c r="K7">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="L7">
+        <v>199.64999999999998</v>
+      </c>
+      <c r="M7">
+        <v>247.6</v>
+      </c>
+      <c r="N7">
+        <v>203.3</v>
+      </c>
+      <c r="O7">
+        <v>203.95</v>
+      </c>
+      <c r="P7">
+        <v>290.60000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>233</v>
+      </c>
+      <c r="R7">
+        <v>215.8</v>
+      </c>
+      <c r="T7">
+        <v>237.64999999999998</v>
+      </c>
+      <c r="U7">
+        <v>240.9</v>
+      </c>
+      <c r="V7">
+        <v>257.5</v>
+      </c>
+      <c r="W7">
+        <v>245.2</v>
+      </c>
+      <c r="X7">
+        <v>258.75</v>
+      </c>
+      <c r="Y7">
+        <v>280.55</v>
+      </c>
+      <c r="Z7">
+        <v>266.5</v>
+      </c>
+      <c r="AA7">
+        <v>246.2</v>
+      </c>
+      <c r="AB7">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>224.4</v>
+      </c>
+      <c r="AE7">
+        <v>178.05</v>
+      </c>
+      <c r="AF7">
+        <v>194.95</v>
+      </c>
+      <c r="AG7">
+        <v>192.35</v>
+      </c>
+      <c r="AH7">
+        <v>196.4</v>
+      </c>
+      <c r="AI7">
+        <v>204.3</v>
+      </c>
+      <c r="AJ7">
+        <v>192.2</v>
+      </c>
+      <c r="AK7">
+        <v>224.7</v>
+      </c>
+      <c r="AL7">
+        <v>202.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>221.65294117647065</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>257.20294117647057</v>
+      </c>
+      <c r="J8">
+        <v>215.8</v>
+      </c>
+      <c r="K8">
+        <v>213.8</v>
+      </c>
+      <c r="L8">
+        <v>209.2</v>
+      </c>
+      <c r="M8">
+        <v>227.9</v>
+      </c>
+      <c r="N8">
+        <v>212.45</v>
+      </c>
+      <c r="O8">
+        <v>212.85000000000002</v>
+      </c>
+      <c r="P8">
+        <v>213.4</v>
+      </c>
+      <c r="Q8">
+        <v>207.6</v>
+      </c>
+      <c r="R8">
+        <v>203.35</v>
+      </c>
+      <c r="T8">
+        <v>242</v>
+      </c>
+      <c r="U8">
+        <v>258.3</v>
+      </c>
+      <c r="V8">
+        <v>253</v>
+      </c>
+      <c r="W8">
+        <v>239.4</v>
+      </c>
+      <c r="X8">
+        <v>249.1</v>
+      </c>
+      <c r="Y8">
+        <v>257.5</v>
+      </c>
+      <c r="Z8">
+        <v>245.1</v>
+      </c>
+      <c r="AA8">
+        <v>255.35000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>243.4</v>
+      </c>
+      <c r="AD8">
+        <v>185.7</v>
+      </c>
+      <c r="AE8">
+        <v>200.1</v>
+      </c>
+      <c r="AF8">
+        <v>209.65</v>
+      </c>
+      <c r="AG8">
+        <v>207.5</v>
+      </c>
+      <c r="AH8">
+        <v>197.3</v>
+      </c>
+      <c r="AI8">
+        <v>209.75</v>
+      </c>
+      <c r="AJ8">
+        <v>203.7</v>
+      </c>
+      <c r="AK8">
+        <v>212.8</v>
+      </c>
+      <c r="AL8">
+        <v>202.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>209.24558823529412</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>267.68382352941177</v>
+      </c>
+      <c r="J9">
+        <v>229.1</v>
+      </c>
+      <c r="K9">
+        <v>256.10000000000002</v>
+      </c>
+      <c r="L9">
+        <v>328.2</v>
+      </c>
+      <c r="M9">
+        <v>343.8</v>
+      </c>
+      <c r="N9">
+        <v>240.5</v>
+      </c>
+      <c r="O9">
+        <v>245.5</v>
+      </c>
+      <c r="P9">
+        <v>432.7</v>
+      </c>
+      <c r="Q9">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="R9">
+        <v>267.3</v>
+      </c>
+      <c r="T9">
+        <v>301.3</v>
+      </c>
+      <c r="U9">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="V9">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="W9">
+        <v>326.10000000000002</v>
+      </c>
+      <c r="X9">
+        <v>294.5</v>
+      </c>
+      <c r="Y9">
+        <v>272</v>
+      </c>
+      <c r="Z9">
+        <v>293.85000000000002</v>
+      </c>
+      <c r="AA9">
+        <v>294.2</v>
+      </c>
+      <c r="AB9">
+        <v>284.05</v>
+      </c>
+      <c r="AD9">
+        <v>213.9</v>
+      </c>
+      <c r="AE9">
+        <v>222.2</v>
+      </c>
+      <c r="AF9">
+        <v>219.9</v>
+      </c>
+      <c r="AG9">
+        <v>230.4</v>
+      </c>
+      <c r="AH9">
+        <v>217.2</v>
+      </c>
+      <c r="AI9">
+        <v>228.6</v>
+      </c>
+      <c r="AJ9">
+        <v>217.5</v>
+      </c>
+      <c r="AK9">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="AL9">
+        <v>236.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>200.24264705882351</v>
+      </c>
+      <c r="J10">
+        <v>270</v>
+      </c>
+      <c r="K10">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="L10">
+        <v>284.95</v>
+      </c>
+      <c r="M10">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="N10">
+        <v>276.2</v>
+      </c>
+      <c r="O10">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="P10">
+        <v>356.1</v>
+      </c>
+      <c r="Q10">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="R10">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="T10">
+        <v>246.9</v>
+      </c>
+      <c r="U10">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="V10">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="W10">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="X10">
+        <v>253.4</v>
+      </c>
+      <c r="Y10">
+        <v>277</v>
+      </c>
+      <c r="Z10">
+        <v>308.75</v>
+      </c>
+      <c r="AA10">
+        <v>295.2</v>
+      </c>
+      <c r="AB10">
+        <v>285.2</v>
+      </c>
+      <c r="AD10">
+        <v>227.89999999999998</v>
+      </c>
+      <c r="AE10">
+        <v>253.4</v>
+      </c>
+      <c r="AF10">
+        <v>253.1</v>
+      </c>
+      <c r="AG10">
+        <v>251.45</v>
+      </c>
+      <c r="AH10">
+        <v>222.8</v>
+      </c>
+      <c r="AI10">
+        <v>220.95</v>
+      </c>
+      <c r="AJ10">
+        <v>247.3</v>
+      </c>
+      <c r="AK10">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="AL10">
+        <v>237.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>241.44705882352932</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>196.51323529411766</v>
+      </c>
+      <c r="J11">
+        <v>212.89999999999998</v>
+      </c>
+      <c r="K11">
+        <v>199.3</v>
+      </c>
+      <c r="L11">
+        <v>211.6</v>
+      </c>
+      <c r="M11">
+        <v>210</v>
+      </c>
+      <c r="N11">
+        <v>193.3</v>
+      </c>
+      <c r="O11">
+        <v>208.2</v>
+      </c>
+      <c r="P11">
+        <v>213</v>
+      </c>
+      <c r="Q11">
+        <v>196.3</v>
+      </c>
+      <c r="R11">
+        <v>186.8</v>
+      </c>
+      <c r="T11">
+        <v>251.10000000000002</v>
+      </c>
+      <c r="U11">
+        <v>236.3</v>
+      </c>
+      <c r="V11">
+        <v>257.10000000000002</v>
+      </c>
+      <c r="W11">
+        <v>243.1</v>
+      </c>
+      <c r="X11">
+        <v>246.5</v>
+      </c>
+      <c r="Y11">
+        <v>251.3</v>
+      </c>
+      <c r="Z11">
+        <v>249.8</v>
+      </c>
+      <c r="AA11">
+        <v>248.5</v>
+      </c>
+      <c r="AB11">
+        <v>249.05</v>
+      </c>
+      <c r="AD11">
+        <v>187.6</v>
+      </c>
+      <c r="AE11">
+        <v>191.45</v>
+      </c>
+      <c r="AF11">
+        <v>195.64999999999998</v>
+      </c>
+      <c r="AG11">
+        <v>189.25</v>
+      </c>
+      <c r="AH11">
+        <v>192.3</v>
+      </c>
+      <c r="AI11">
+        <v>185.75</v>
+      </c>
+      <c r="AJ11">
+        <v>198.55</v>
+      </c>
+      <c r="AK11">
+        <v>194.85000000000002</v>
+      </c>
+      <c r="AL11">
+        <v>195.60000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>252.38088235294114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>198.37205882352939</v>
+      </c>
+      <c r="J12">
+        <v>173.65</v>
+      </c>
+      <c r="K12">
+        <v>174.8</v>
+      </c>
+      <c r="L12">
+        <v>259.10000000000002</v>
+      </c>
+      <c r="M12">
+        <v>221.2</v>
+      </c>
+      <c r="N12">
+        <v>229.45</v>
+      </c>
+      <c r="O12">
+        <v>224.6</v>
+      </c>
+      <c r="P12">
+        <v>370.4</v>
+      </c>
+      <c r="Q12">
+        <v>173.89999999999998</v>
+      </c>
+      <c r="R12">
+        <v>182.25</v>
+      </c>
+      <c r="T12">
+        <v>242.85000000000002</v>
+      </c>
+      <c r="U12">
+        <v>239.60000000000002</v>
+      </c>
+      <c r="V12">
+        <v>223.55</v>
+      </c>
+      <c r="W12">
+        <v>237.2</v>
+      </c>
+      <c r="X12">
+        <v>268.7</v>
+      </c>
+      <c r="Y12">
+        <v>237.4</v>
+      </c>
+      <c r="Z12">
+        <v>242.5</v>
+      </c>
+      <c r="AA12">
+        <v>252.2</v>
+      </c>
+      <c r="AB12">
+        <v>247.3</v>
+      </c>
+      <c r="AD12">
+        <v>164.85000000000002</v>
+      </c>
+      <c r="AE12">
+        <v>184.3</v>
+      </c>
+      <c r="AF12">
+        <v>170.75</v>
+      </c>
+      <c r="AG12">
+        <v>184.60000000000002</v>
+      </c>
+      <c r="AH12">
+        <v>160.94999999999999</v>
+      </c>
+      <c r="AI12">
+        <v>177.15</v>
+      </c>
+      <c r="AJ12">
+        <v>169</v>
+      </c>
+      <c r="AK12">
+        <v>172.35</v>
+      </c>
+      <c r="AL12">
+        <v>189.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>261.98676470588236</v>
+      </c>
+      <c r="J13">
+        <v>216.2</v>
+      </c>
+      <c r="K13">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="L13">
+        <v>288.60000000000002</v>
+      </c>
+      <c r="M13">
+        <v>333.3</v>
+      </c>
+      <c r="N13">
+        <v>228.75</v>
+      </c>
+      <c r="O13">
+        <v>224.2</v>
+      </c>
+      <c r="P13">
+        <v>362.6</v>
+      </c>
+      <c r="Q13">
+        <v>254.85000000000002</v>
+      </c>
+      <c r="R13">
+        <v>249.4</v>
+      </c>
+      <c r="T13">
+        <v>249.9</v>
+      </c>
+      <c r="U13">
+        <v>261.7</v>
+      </c>
+      <c r="V13">
+        <v>298.25</v>
+      </c>
+      <c r="W13">
+        <v>355.2</v>
+      </c>
+      <c r="X13">
+        <v>239.89999999999998</v>
+      </c>
+      <c r="Y13">
+        <v>300.04999999999995</v>
+      </c>
+      <c r="Z13">
+        <v>351.4</v>
+      </c>
+      <c r="AA13">
+        <v>320.14999999999998</v>
+      </c>
+      <c r="AB13">
+        <v>284.2</v>
+      </c>
+      <c r="AD13">
+        <v>212.55</v>
+      </c>
+      <c r="AE13">
+        <v>212.3</v>
+      </c>
+      <c r="AF13">
+        <v>210.35</v>
+      </c>
+      <c r="AG13">
+        <v>208.95</v>
+      </c>
+      <c r="AH13">
+        <v>224.25</v>
+      </c>
+      <c r="AI13">
+        <v>219.35</v>
+      </c>
+      <c r="AJ13">
+        <v>240.4</v>
+      </c>
+      <c r="AK13">
+        <v>245.64999999999998</v>
+      </c>
+      <c r="AL13">
+        <v>201.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>278.14705882352933</v>
+      </c>
+      <c r="J14">
+        <v>214.5</v>
+      </c>
+      <c r="K14">
+        <v>250.10000000000002</v>
+      </c>
+      <c r="L14">
+        <v>289.39999999999998</v>
+      </c>
+      <c r="M14">
+        <v>255.7</v>
+      </c>
+      <c r="N14">
+        <v>231.65</v>
+      </c>
+      <c r="O14">
+        <v>251.5</v>
+      </c>
+      <c r="P14">
+        <v>230.3</v>
+      </c>
+      <c r="Q14">
+        <v>219.4</v>
+      </c>
+      <c r="R14">
+        <v>236.1</v>
+      </c>
+      <c r="T14">
+        <v>219.35</v>
+      </c>
+      <c r="U14">
+        <v>314.35000000000002</v>
+      </c>
+      <c r="V14">
+        <v>391.4</v>
+      </c>
+      <c r="W14">
+        <v>299.3</v>
+      </c>
+      <c r="X14">
+        <v>244.75</v>
+      </c>
+      <c r="Y14">
+        <v>264.89999999999998</v>
+      </c>
+      <c r="Z14">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="AA14">
+        <v>302</v>
+      </c>
+      <c r="AB14">
+        <v>293</v>
+      </c>
+      <c r="AD14">
+        <v>224.8</v>
+      </c>
+      <c r="AE14">
+        <v>187.6</v>
+      </c>
+      <c r="AF14">
+        <v>205.95</v>
+      </c>
+      <c r="AG14">
+        <v>295.5</v>
+      </c>
+      <c r="AH14">
+        <v>224.64999999999998</v>
+      </c>
+      <c r="AI14">
+        <v>203.8</v>
+      </c>
+      <c r="AJ14">
+        <v>190.15</v>
+      </c>
+      <c r="AK14">
+        <v>224.5</v>
+      </c>
+      <c r="AL14">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>240.9205882352941</v>
+      </c>
+      <c r="J15">
+        <v>229.8</v>
+      </c>
+      <c r="K15">
+        <v>283.3</v>
+      </c>
+      <c r="L15">
+        <v>238.1</v>
+      </c>
+      <c r="M15">
+        <v>259.45</v>
+      </c>
+      <c r="N15">
+        <v>249.1</v>
+      </c>
+      <c r="O15">
+        <v>210.7</v>
+      </c>
+      <c r="P15">
+        <v>281.89999999999998</v>
+      </c>
+      <c r="Q15">
+        <v>195.85</v>
+      </c>
+      <c r="R15">
+        <v>196.15</v>
+      </c>
+      <c r="T15">
+        <v>261.5</v>
+      </c>
+      <c r="U15">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="V15">
+        <v>238.89999999999998</v>
+      </c>
+      <c r="W15">
+        <v>267.5</v>
+      </c>
+      <c r="X15">
+        <v>227.4</v>
+      </c>
+      <c r="Y15">
+        <v>244.1</v>
+      </c>
+      <c r="Z15">
+        <v>325.5</v>
+      </c>
+      <c r="AA15">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="AB15">
+        <v>235.45</v>
+      </c>
+      <c r="AD15">
+        <v>196.85000000000002</v>
+      </c>
+      <c r="AE15">
+        <v>202</v>
+      </c>
+      <c r="AF15">
+        <v>182.8</v>
+      </c>
+      <c r="AG15">
+        <v>193.8</v>
+      </c>
+      <c r="AH15">
+        <v>199</v>
+      </c>
+      <c r="AI15">
+        <v>203.2</v>
+      </c>
+      <c r="AJ15">
+        <v>188.55</v>
+      </c>
+      <c r="AK15">
+        <v>205.7</v>
+      </c>
+      <c r="AL15">
+        <v>194.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>248.66029411764708</v>
+      </c>
+      <c r="J16">
+        <v>197.1</v>
+      </c>
+      <c r="K16">
+        <v>222.7</v>
+      </c>
+      <c r="L16">
+        <v>337.1</v>
+      </c>
+      <c r="M16">
+        <v>393.45000000000005</v>
+      </c>
+      <c r="N16">
+        <v>213</v>
+      </c>
+      <c r="O16">
+        <v>197.1</v>
+      </c>
+      <c r="P16">
+        <v>406.35</v>
+      </c>
+      <c r="Q16">
+        <v>247.4</v>
+      </c>
+      <c r="R16">
+        <v>193.7</v>
+      </c>
+      <c r="T16">
+        <v>240.75</v>
+      </c>
+      <c r="U16">
+        <v>267.10000000000002</v>
+      </c>
+      <c r="V16">
+        <v>324.10000000000002</v>
+      </c>
+      <c r="W16">
+        <v>372.1</v>
+      </c>
+      <c r="X16">
+        <v>222.85</v>
+      </c>
+      <c r="Y16">
+        <v>234.7</v>
+      </c>
+      <c r="Z16">
+        <v>382.5</v>
+      </c>
+      <c r="AA16">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="AB16">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="AD16">
+        <v>186.35</v>
+      </c>
+      <c r="AE16">
+        <v>206.3</v>
+      </c>
+      <c r="AF16">
+        <v>192.7</v>
+      </c>
+      <c r="AG16">
+        <v>196.55</v>
+      </c>
+      <c r="AH16">
+        <v>189.10000000000002</v>
+      </c>
+      <c r="AI16">
+        <v>193.15</v>
+      </c>
+      <c r="AJ16">
+        <v>196.2</v>
+      </c>
+      <c r="AK16">
+        <v>209.64999999999998</v>
+      </c>
+      <c r="AL16">
+        <v>216.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>281.37058823529412</v>
+      </c>
+      <c r="J17">
+        <v>213.8</v>
+      </c>
+      <c r="K17">
+        <v>274.25</v>
+      </c>
+      <c r="L17">
+        <v>247.1</v>
+      </c>
+      <c r="M17">
+        <v>335</v>
+      </c>
+      <c r="N17">
+        <v>187.2</v>
+      </c>
+      <c r="O17">
+        <v>233.1</v>
+      </c>
+      <c r="P17">
+        <v>346.4</v>
+      </c>
+      <c r="Q17">
+        <v>249.5</v>
+      </c>
+      <c r="R17">
+        <v>224.7</v>
+      </c>
+      <c r="T17">
+        <v>236.75</v>
+      </c>
+      <c r="U17">
+        <v>223</v>
+      </c>
+      <c r="V17">
+        <v>255.6</v>
+      </c>
+      <c r="W17">
+        <v>279.89999999999998</v>
+      </c>
+      <c r="X17">
+        <v>235.7</v>
+      </c>
+      <c r="Y17">
+        <v>241.8</v>
+      </c>
+      <c r="Z17">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="AA17">
+        <v>248.9</v>
+      </c>
+      <c r="AB17">
+        <v>240.3</v>
+      </c>
+      <c r="AD17">
+        <v>188</v>
+      </c>
+      <c r="AE17">
+        <v>185.2</v>
+      </c>
+      <c r="AF17">
+        <v>200.5</v>
+      </c>
+      <c r="AG17">
+        <v>198.35</v>
+      </c>
+      <c r="AH17">
+        <v>190.65</v>
+      </c>
+      <c r="AI17">
+        <v>200.60000000000002</v>
+      </c>
+      <c r="AJ17">
+        <v>219.5</v>
+      </c>
+      <c r="AK17">
+        <v>214.35</v>
+      </c>
+      <c r="AL17">
+        <v>201.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>264.16470588235296</v>
+      </c>
+      <c r="J18">
+        <v>155.9</v>
+      </c>
+      <c r="K18">
+        <v>152.75</v>
+      </c>
+      <c r="L18">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="M18">
+        <v>153</v>
+      </c>
+      <c r="N18">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="O18">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="P18">
+        <v>170.8</v>
+      </c>
+      <c r="Q18">
+        <v>171.1</v>
+      </c>
+      <c r="R18">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="T18">
+        <v>202.5</v>
+      </c>
+      <c r="U18">
+        <v>199.7</v>
+      </c>
+      <c r="V18">
+        <v>194.3</v>
+      </c>
+      <c r="W18">
+        <v>203.2</v>
+      </c>
+      <c r="X18">
+        <v>202.45</v>
+      </c>
+      <c r="Y18">
+        <v>201.3</v>
+      </c>
+      <c r="Z18">
+        <v>202.1</v>
+      </c>
+      <c r="AA18">
+        <v>207.45</v>
+      </c>
+      <c r="AB18">
+        <v>207.5</v>
+      </c>
+      <c r="AD18">
+        <v>147.25</v>
+      </c>
+      <c r="AE18">
+        <v>156.75</v>
+      </c>
+      <c r="AF18">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>152.05000000000001</v>
+      </c>
+      <c r="AH18">
+        <v>150.44999999999999</v>
+      </c>
+      <c r="AI18">
+        <v>159.05000000000001</v>
+      </c>
+      <c r="AJ18">
+        <v>156.85000000000002</v>
+      </c>
+      <c r="AK18">
+        <v>151.5</v>
+      </c>
+      <c r="AL18">
+        <v>152.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>258.7176470588235</v>
+      </c>
+      <c r="J19">
+        <v>177.4</v>
+      </c>
+      <c r="K19">
+        <v>177.1</v>
+      </c>
+      <c r="L19">
+        <v>186.6</v>
+      </c>
+      <c r="M19">
+        <v>183.8</v>
+      </c>
+      <c r="N19">
+        <v>182.1</v>
+      </c>
+      <c r="O19">
+        <v>178.9</v>
+      </c>
+      <c r="P19">
+        <v>184.3</v>
+      </c>
+      <c r="Q19">
+        <v>180.6</v>
+      </c>
+      <c r="R19">
+        <v>165.64999999999998</v>
+      </c>
+      <c r="T19">
+        <v>215.4</v>
+      </c>
+      <c r="U19">
+        <v>225.7</v>
+      </c>
+      <c r="V19">
+        <v>214.65</v>
+      </c>
+      <c r="W19">
+        <v>245.2</v>
+      </c>
+      <c r="X19">
+        <v>213</v>
+      </c>
+      <c r="Y19">
+        <v>213</v>
+      </c>
+      <c r="Z19">
+        <v>264.64999999999998</v>
+      </c>
+      <c r="AA19">
+        <v>227.6</v>
+      </c>
+      <c r="AB19">
+        <v>221.45</v>
+      </c>
+      <c r="AD19">
+        <v>169.7</v>
+      </c>
+      <c r="AE19">
+        <v>171.9</v>
+      </c>
+      <c r="AF19">
+        <v>170</v>
+      </c>
+      <c r="AG19">
+        <v>166.1</v>
+      </c>
+      <c r="AH19">
+        <v>164.45</v>
+      </c>
+      <c r="AI19">
+        <v>176.9</v>
+      </c>
+      <c r="AJ19">
+        <v>186.3</v>
+      </c>
+      <c r="AK19">
+        <v>182.65</v>
+      </c>
+      <c r="AL19">
+        <v>179.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>173.45</v>
+      </c>
+      <c r="K20">
+        <v>179.95</v>
+      </c>
+      <c r="L20">
+        <v>180.1</v>
+      </c>
+      <c r="M20">
+        <v>181.8</v>
+      </c>
+      <c r="N20">
+        <v>163.1</v>
+      </c>
+      <c r="O20">
+        <v>173.4</v>
+      </c>
+      <c r="P20">
+        <v>202.3</v>
+      </c>
+      <c r="Q20">
+        <v>163.9</v>
+      </c>
+      <c r="R20">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="T20">
+        <v>222.75</v>
+      </c>
+      <c r="U20">
+        <v>212.2</v>
+      </c>
+      <c r="V20">
+        <v>231</v>
+      </c>
+      <c r="W20">
+        <v>286.25</v>
+      </c>
+      <c r="X20">
+        <v>220.2</v>
+      </c>
+      <c r="Y20">
+        <v>216.95</v>
+      </c>
+      <c r="Z20">
+        <v>225.55</v>
+      </c>
+      <c r="AA20">
+        <v>225.3</v>
+      </c>
+      <c r="AB20">
+        <v>225.7</v>
+      </c>
+      <c r="AD20">
+        <v>171.4</v>
+      </c>
+      <c r="AE20">
+        <v>165.7</v>
+      </c>
+      <c r="AF20">
+        <v>170.15</v>
+      </c>
+      <c r="AG20">
+        <v>164.85</v>
+      </c>
+      <c r="AH20">
+        <v>163.6</v>
+      </c>
+      <c r="AI20">
+        <v>167.4</v>
+      </c>
+      <c r="AJ20">
+        <v>173.6</v>
+      </c>
+      <c r="AK20">
+        <v>170.95</v>
+      </c>
+      <c r="AL20">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>196.76029411764708</v>
+      </c>
+      <c r="J21">
+        <v>212</v>
+      </c>
+      <c r="K21">
+        <v>244.45</v>
+      </c>
+      <c r="L21">
+        <v>228.9</v>
+      </c>
+      <c r="M21">
+        <v>328.4</v>
+      </c>
+      <c r="N21">
+        <v>229.6</v>
+      </c>
+      <c r="O21">
+        <v>272.8</v>
+      </c>
+      <c r="P21">
+        <v>228.3</v>
+      </c>
+      <c r="Q21">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="R21">
+        <v>239.3</v>
+      </c>
+      <c r="T21">
+        <v>235.14999999999998</v>
+      </c>
+      <c r="U21">
+        <v>266.7</v>
+      </c>
+      <c r="V21">
+        <v>270</v>
+      </c>
+      <c r="W21">
+        <v>303</v>
+      </c>
+      <c r="X21">
+        <v>251</v>
+      </c>
+      <c r="Y21">
+        <v>252.70000000000002</v>
+      </c>
+      <c r="Z21">
+        <v>257.3</v>
+      </c>
+      <c r="AA21">
+        <v>242.1</v>
+      </c>
+      <c r="AB21">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="AD21">
+        <v>209.75</v>
+      </c>
+      <c r="AE21">
+        <v>225.7</v>
+      </c>
+      <c r="AF21">
+        <v>231.3</v>
+      </c>
+      <c r="AG21">
+        <v>220.9</v>
+      </c>
+      <c r="AH21">
+        <v>212.2</v>
+      </c>
+      <c r="AI21">
+        <v>239.55</v>
+      </c>
+      <c r="AJ21">
+        <v>217.5</v>
+      </c>
+      <c r="AK21">
+        <v>221.4</v>
+      </c>
+      <c r="AL21">
+        <v>218.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>198.3808823529412</v>
+      </c>
+      <c r="J22">
+        <v>221.7</v>
+      </c>
+      <c r="K22">
+        <v>174.2</v>
+      </c>
+      <c r="L22">
+        <v>248.04999999999998</v>
+      </c>
+      <c r="M22">
+        <v>210.1</v>
+      </c>
+      <c r="N22">
+        <v>202.1</v>
+      </c>
+      <c r="O22">
+        <v>205.3</v>
+      </c>
+      <c r="P22">
+        <v>196.5</v>
+      </c>
+      <c r="Q22">
+        <v>216.3</v>
+      </c>
+      <c r="R22">
+        <v>200.5</v>
+      </c>
+      <c r="T22">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="U22">
+        <v>247.2</v>
+      </c>
+      <c r="V22">
+        <v>260</v>
+      </c>
+      <c r="W22">
+        <v>259.89999999999998</v>
+      </c>
+      <c r="X22">
+        <v>238.5</v>
+      </c>
+      <c r="Y22">
+        <v>294.95000000000005</v>
+      </c>
+      <c r="Z22">
+        <v>381</v>
+      </c>
+      <c r="AA22">
+        <v>266.5</v>
+      </c>
+      <c r="AB22">
+        <v>256.85000000000002</v>
+      </c>
+      <c r="AD22">
+        <v>185.2</v>
+      </c>
+      <c r="AE22">
+        <v>192.39999999999998</v>
+      </c>
+      <c r="AF22">
+        <v>179.55</v>
+      </c>
+      <c r="AG22">
+        <v>197.9</v>
+      </c>
+      <c r="AH22">
+        <v>189.85</v>
+      </c>
+      <c r="AI22">
+        <v>200</v>
+      </c>
+      <c r="AJ22">
+        <v>206.6</v>
+      </c>
+      <c r="AK22">
+        <v>191.8</v>
+      </c>
+      <c r="AL22">
+        <v>191.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>198.08235294117648</v>
+      </c>
+      <c r="J23">
+        <v>210.1</v>
+      </c>
+      <c r="K23">
+        <v>203</v>
+      </c>
+      <c r="L23">
+        <v>232</v>
+      </c>
+      <c r="M23">
+        <v>235.35</v>
+      </c>
+      <c r="N23">
+        <v>204.5</v>
+      </c>
+      <c r="O23">
+        <v>204.15</v>
+      </c>
+      <c r="P23">
+        <v>322.8</v>
+      </c>
+      <c r="Q23">
+        <v>219.2</v>
+      </c>
+      <c r="R23">
+        <v>191.05</v>
+      </c>
+      <c r="T23">
+        <v>220.35000000000002</v>
+      </c>
+      <c r="U23">
+        <v>238</v>
+      </c>
+      <c r="V23">
+        <v>257.3</v>
+      </c>
+      <c r="W23">
+        <v>292.3</v>
+      </c>
+      <c r="X23">
+        <v>246.9</v>
+      </c>
+      <c r="Y23">
+        <v>249.7</v>
+      </c>
+      <c r="Z23">
+        <v>269.89999999999998</v>
+      </c>
+      <c r="AA23">
+        <v>252.4</v>
+      </c>
+      <c r="AB23">
+        <v>246.35000000000002</v>
+      </c>
+      <c r="AD23">
+        <v>199.9</v>
+      </c>
+      <c r="AE23">
+        <v>207.1</v>
+      </c>
+      <c r="AF23">
+        <v>191.39999999999998</v>
+      </c>
+      <c r="AG23">
+        <v>200.45</v>
+      </c>
+      <c r="AH23">
+        <v>189.6</v>
+      </c>
+      <c r="AI23">
+        <v>208</v>
+      </c>
+      <c r="AJ23">
+        <v>211.1</v>
+      </c>
+      <c r="AK23">
+        <v>208.9</v>
+      </c>
+      <c r="AL23">
+        <v>216.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>200.23235294117646</v>
+      </c>
+      <c r="J24">
+        <v>216.1</v>
+      </c>
+      <c r="K24">
+        <v>287.7</v>
+      </c>
+      <c r="L24">
+        <v>233.9</v>
+      </c>
+      <c r="M24">
+        <v>265.2</v>
+      </c>
+      <c r="N24">
+        <v>256.2</v>
+      </c>
+      <c r="O24">
+        <v>255.9</v>
+      </c>
+      <c r="P24">
+        <v>294.64999999999998</v>
+      </c>
+      <c r="Q24">
+        <v>243.85000000000002</v>
+      </c>
+      <c r="R24">
+        <v>249.45</v>
+      </c>
+      <c r="T24">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="U24">
+        <v>269.7</v>
+      </c>
+      <c r="V24">
+        <v>241.60000000000002</v>
+      </c>
+      <c r="W24">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="X24">
+        <v>230.75</v>
+      </c>
+      <c r="Y24">
+        <v>217.65</v>
+      </c>
+      <c r="Z24">
+        <v>257.7</v>
+      </c>
+      <c r="AA24">
+        <v>272.55</v>
+      </c>
+      <c r="AB24">
+        <v>242.5</v>
+      </c>
+      <c r="AD24">
+        <v>192.9</v>
+      </c>
+      <c r="AE24">
+        <v>196.5</v>
+      </c>
+      <c r="AF24">
+        <v>203.2</v>
+      </c>
+      <c r="AG24">
+        <v>198.8</v>
+      </c>
+      <c r="AH24">
+        <v>206.8</v>
+      </c>
+      <c r="AI24">
+        <v>201.1</v>
+      </c>
+      <c r="AJ24">
+        <v>215.64999999999998</v>
+      </c>
+      <c r="AK24">
+        <v>211.7</v>
+      </c>
+      <c r="AL24">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>193.78382352941176</v>
+      </c>
+      <c r="J25">
+        <v>177.2</v>
+      </c>
+      <c r="K25">
+        <v>181.25</v>
+      </c>
+      <c r="L25">
+        <v>203.25</v>
+      </c>
+      <c r="M25">
+        <v>220.5</v>
+      </c>
+      <c r="N25">
+        <v>165.1</v>
+      </c>
+      <c r="O25">
+        <v>183.3</v>
+      </c>
+      <c r="P25">
+        <v>173.5</v>
+      </c>
+      <c r="Q25">
+        <v>183.6</v>
+      </c>
+      <c r="R25">
+        <v>175.6</v>
+      </c>
+      <c r="T25">
+        <v>200.89999999999998</v>
+      </c>
+      <c r="U25">
+        <v>208.6</v>
+      </c>
+      <c r="V25">
+        <v>219.8</v>
+      </c>
+      <c r="W25">
+        <v>242.4</v>
+      </c>
+      <c r="X25">
+        <v>205.45</v>
+      </c>
+      <c r="Y25">
+        <v>203.75</v>
+      </c>
+      <c r="Z25">
+        <v>250.7</v>
+      </c>
+      <c r="AA25">
+        <v>231.6</v>
+      </c>
+      <c r="AB25">
+        <v>214.3</v>
+      </c>
+      <c r="AD25">
+        <v>172.55</v>
+      </c>
+      <c r="AE25">
+        <v>175.3</v>
+      </c>
+      <c r="AF25">
+        <v>175.7</v>
+      </c>
+      <c r="AG25">
+        <v>164.45</v>
+      </c>
+      <c r="AH25">
+        <v>161</v>
+      </c>
+      <c r="AI25">
+        <v>178.7</v>
+      </c>
+      <c r="AJ25">
+        <v>173.1</v>
+      </c>
+      <c r="AK25">
+        <v>177.25</v>
+      </c>
+      <c r="AL25">
+        <v>166.64999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>198.63088235294123</v>
+      </c>
+      <c r="J26">
+        <v>229.85</v>
+      </c>
+      <c r="K26">
+        <v>236.8</v>
+      </c>
+      <c r="L26">
+        <v>236.6</v>
+      </c>
+      <c r="M26">
+        <v>312.2</v>
+      </c>
+      <c r="N26">
+        <v>215.5</v>
+      </c>
+      <c r="O26">
+        <v>239.3</v>
+      </c>
+      <c r="P26">
+        <v>294.60000000000002</v>
+      </c>
+      <c r="Q26">
+        <v>246.9</v>
+      </c>
+      <c r="R26">
+        <v>237.6</v>
+      </c>
+      <c r="T26">
+        <v>259.2</v>
+      </c>
+      <c r="U26">
+        <v>262</v>
+      </c>
+      <c r="V26">
+        <v>314.7</v>
+      </c>
+      <c r="W26">
+        <v>310.35000000000002</v>
+      </c>
+      <c r="X26">
+        <v>262.45</v>
+      </c>
+      <c r="Y26">
+        <v>273.8</v>
+      </c>
+      <c r="Z26">
+        <v>302.2</v>
+      </c>
+      <c r="AA26">
+        <v>285.70000000000005</v>
+      </c>
+      <c r="AB26">
+        <v>288.45</v>
+      </c>
+      <c r="AD26">
+        <v>231.7</v>
+      </c>
+      <c r="AE26">
+        <v>230.39999999999998</v>
+      </c>
+      <c r="AF26">
+        <v>225.1</v>
+      </c>
+      <c r="AG26">
+        <v>220.75</v>
+      </c>
+      <c r="AH26">
+        <v>221.5</v>
+      </c>
+      <c r="AI26">
+        <v>222.45</v>
+      </c>
+      <c r="AJ26">
+        <v>225.7</v>
+      </c>
+      <c r="AK26">
+        <v>217.7</v>
+      </c>
+      <c r="AL26">
+        <v>209.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>198.6823529411765</v>
+      </c>
+      <c r="J27">
+        <v>206.7</v>
+      </c>
+      <c r="K27">
+        <v>241.8</v>
+      </c>
+      <c r="L27">
+        <v>217.4</v>
+      </c>
+      <c r="M27">
+        <v>301</v>
+      </c>
+      <c r="N27">
+        <v>219.3</v>
+      </c>
+      <c r="O27">
+        <v>227.8</v>
+      </c>
+      <c r="P27">
+        <v>273.89999999999998</v>
+      </c>
+      <c r="Q27">
+        <v>228.4</v>
+      </c>
+      <c r="R27">
+        <v>232.9</v>
+      </c>
+      <c r="T27">
+        <v>238.4</v>
+      </c>
+      <c r="U27">
+        <v>253.7</v>
+      </c>
+      <c r="V27">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="W27">
+        <v>262.2</v>
+      </c>
+      <c r="X27">
+        <v>242.7</v>
+      </c>
+      <c r="Y27">
+        <v>247.85000000000002</v>
+      </c>
+      <c r="Z27">
+        <v>275.7</v>
+      </c>
+      <c r="AA27">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="AB27">
+        <v>243.14999999999998</v>
+      </c>
+      <c r="AD27">
+        <v>200.7</v>
+      </c>
+      <c r="AE27">
+        <v>199.1</v>
+      </c>
+      <c r="AF27">
+        <v>207</v>
+      </c>
+      <c r="AG27">
+        <v>208.9</v>
+      </c>
+      <c r="AH27">
+        <v>201.15</v>
+      </c>
+      <c r="AI27">
+        <v>197.75</v>
+      </c>
+      <c r="AJ27">
+        <v>184.15</v>
+      </c>
+      <c r="AK27">
+        <v>207.25</v>
+      </c>
+      <c r="AL27">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>206.30588235294113</v>
+      </c>
+      <c r="J28">
+        <v>192.6</v>
+      </c>
+      <c r="K28">
+        <v>205.55</v>
+      </c>
+      <c r="L28">
+        <v>198.65</v>
+      </c>
+      <c r="M28">
+        <v>188.3</v>
+      </c>
+      <c r="N28">
+        <v>191</v>
+      </c>
+      <c r="O28">
+        <v>186.85</v>
+      </c>
+      <c r="P28">
+        <v>220.15</v>
+      </c>
+      <c r="Q28">
+        <v>187.8</v>
+      </c>
+      <c r="R28">
+        <v>179.4</v>
+      </c>
+      <c r="T28">
+        <v>244.6</v>
+      </c>
+      <c r="U28">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="V28">
+        <v>243.60000000000002</v>
+      </c>
+      <c r="W28">
+        <v>273.8</v>
+      </c>
+      <c r="X28">
+        <v>238</v>
+      </c>
+      <c r="Y28">
+        <v>256.8</v>
+      </c>
+      <c r="Z28">
+        <v>254.55</v>
+      </c>
+      <c r="AA28">
+        <v>262.5</v>
+      </c>
+      <c r="AB28">
+        <v>244.3</v>
+      </c>
+      <c r="AD28">
+        <v>188.8</v>
+      </c>
+      <c r="AE28">
+        <v>196.4</v>
+      </c>
+      <c r="AF28">
+        <v>188.3</v>
+      </c>
+      <c r="AG28">
+        <v>192.6</v>
+      </c>
+      <c r="AH28">
+        <v>181.9</v>
+      </c>
+      <c r="AI28">
+        <v>190.15</v>
+      </c>
+      <c r="AJ28">
+        <v>187.65</v>
+      </c>
+      <c r="AK28">
+        <v>186.2</v>
+      </c>
+      <c r="AL28">
+        <v>196.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>201.78088235294115</v>
+      </c>
+      <c r="J29">
+        <v>257.7</v>
+      </c>
+      <c r="K29">
+        <v>208.7</v>
+      </c>
+      <c r="L29">
+        <v>312.10000000000002</v>
+      </c>
+      <c r="M29">
+        <v>412</v>
+      </c>
+      <c r="N29">
+        <v>235</v>
+      </c>
+      <c r="O29">
+        <v>225.2</v>
+      </c>
+      <c r="P29">
+        <v>280.64999999999998</v>
+      </c>
+      <c r="Q29">
+        <v>202.35000000000002</v>
+      </c>
+      <c r="R29">
+        <v>212.7</v>
+      </c>
+      <c r="T29">
+        <v>254</v>
+      </c>
+      <c r="U29">
+        <v>241.7</v>
+      </c>
+      <c r="V29">
+        <v>283.8</v>
+      </c>
+      <c r="W29">
+        <v>263.3</v>
+      </c>
+      <c r="X29">
+        <v>263.5</v>
+      </c>
+      <c r="Y29">
+        <v>261.95000000000005</v>
+      </c>
+      <c r="Z29">
+        <v>213.1</v>
+      </c>
+      <c r="AA29">
+        <v>258.54999999999995</v>
+      </c>
+      <c r="AB29">
+        <v>277.45</v>
+      </c>
+      <c r="AD29">
+        <v>204.35</v>
+      </c>
+      <c r="AE29">
+        <v>209</v>
+      </c>
+      <c r="AF29">
+        <v>200.85</v>
+      </c>
+      <c r="AG29">
+        <v>210.10000000000002</v>
+      </c>
+      <c r="AH29">
+        <v>200.35000000000002</v>
+      </c>
+      <c r="AI29">
+        <v>188.1</v>
+      </c>
+      <c r="AJ29">
+        <v>200.3</v>
+      </c>
+      <c r="AK29">
+        <v>209.7</v>
+      </c>
+      <c r="AL29">
+        <v>207.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>242.1</v>
+      </c>
+      <c r="K30">
+        <v>252.3</v>
+      </c>
+      <c r="L30">
+        <v>213.2</v>
+      </c>
+      <c r="M30">
+        <v>283.89999999999998</v>
+      </c>
+      <c r="N30">
+        <v>269.7</v>
+      </c>
+      <c r="O30">
+        <v>241.9</v>
+      </c>
+      <c r="P30">
+        <v>228.5</v>
+      </c>
+      <c r="Q30">
+        <v>226.85000000000002</v>
+      </c>
+      <c r="R30">
+        <v>221.8</v>
+      </c>
+      <c r="T30">
+        <v>232.7</v>
+      </c>
+      <c r="U30">
+        <v>274.3</v>
+      </c>
+      <c r="V30">
+        <v>245.6</v>
+      </c>
+      <c r="W30">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="X30">
+        <v>241.35</v>
+      </c>
+      <c r="Y30">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="Z30">
+        <v>316.7</v>
+      </c>
+      <c r="AA30">
+        <v>286.7</v>
+      </c>
+      <c r="AB30">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="AD30">
+        <v>226.2</v>
+      </c>
+      <c r="AE30">
+        <v>201.25</v>
+      </c>
+      <c r="AF30">
+        <v>226.5</v>
+      </c>
+      <c r="AG30">
+        <v>193.9</v>
+      </c>
+      <c r="AH30">
+        <v>213.5</v>
+      </c>
+      <c r="AI30">
+        <v>205.3</v>
+      </c>
+      <c r="AJ30">
+        <v>204.6</v>
+      </c>
+      <c r="AK30">
+        <v>231.45</v>
+      </c>
+      <c r="AL30">
+        <v>210.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>232.9</v>
+      </c>
+      <c r="K31">
+        <v>228.6</v>
+      </c>
+      <c r="L31">
+        <v>231.35</v>
+      </c>
+      <c r="M31">
+        <v>281.35000000000002</v>
+      </c>
+      <c r="N31">
+        <v>194.5</v>
+      </c>
+      <c r="O31">
+        <v>214.9</v>
+      </c>
+      <c r="P31">
+        <v>228.1</v>
+      </c>
+      <c r="Q31">
+        <v>232.4</v>
+      </c>
+      <c r="R31">
+        <v>203.5</v>
+      </c>
+      <c r="T31">
+        <v>232.4</v>
+      </c>
+      <c r="U31">
+        <v>293.39999999999998</v>
+      </c>
+      <c r="V31">
+        <v>235.8</v>
+      </c>
+      <c r="W31">
+        <v>241.8</v>
+      </c>
+      <c r="X31">
+        <v>239.2</v>
+      </c>
+      <c r="Y31">
+        <v>258.5</v>
+      </c>
+      <c r="Z31">
+        <v>291.79999999999995</v>
+      </c>
+      <c r="AA31">
+        <v>265.8</v>
+      </c>
+      <c r="AB31">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="AD31">
+        <v>209.75</v>
+      </c>
+      <c r="AE31">
+        <v>209.5</v>
+      </c>
+      <c r="AF31">
+        <v>190.95</v>
+      </c>
+      <c r="AG31">
+        <v>195.6</v>
+      </c>
+      <c r="AH31">
+        <v>211.25</v>
+      </c>
+      <c r="AI31">
+        <v>206.45</v>
+      </c>
+      <c r="AJ31">
+        <v>202.85000000000002</v>
+      </c>
+      <c r="AK31">
+        <v>213.7</v>
+      </c>
+      <c r="AL31">
+        <v>206.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>186.7</v>
+      </c>
+      <c r="K32">
+        <v>213.5</v>
+      </c>
+      <c r="L32">
+        <v>246.95</v>
+      </c>
+      <c r="M32">
+        <v>228.8</v>
+      </c>
+      <c r="N32">
+        <v>220.15</v>
+      </c>
+      <c r="O32">
+        <v>203.4</v>
+      </c>
+      <c r="P32">
+        <v>232.85</v>
+      </c>
+      <c r="Q32">
+        <v>233.8</v>
+      </c>
+      <c r="R32">
+        <v>215.14999999999998</v>
+      </c>
+      <c r="T32">
+        <v>249.45</v>
+      </c>
+      <c r="U32">
+        <v>247.6</v>
+      </c>
+      <c r="V32">
+        <v>265.39999999999998</v>
+      </c>
+      <c r="W32">
+        <v>300.8</v>
+      </c>
+      <c r="X32">
+        <v>248.9</v>
+      </c>
+      <c r="Y32">
+        <v>255.5</v>
+      </c>
+      <c r="Z32">
+        <v>280.7</v>
+      </c>
+      <c r="AA32">
+        <v>281.89999999999998</v>
+      </c>
+      <c r="AB32">
+        <v>286.10000000000002</v>
+      </c>
+      <c r="AD32">
+        <v>190.7</v>
+      </c>
+      <c r="AE32">
+        <v>193.60000000000002</v>
+      </c>
+      <c r="AF32">
+        <v>197</v>
+      </c>
+      <c r="AG32">
+        <v>185.9</v>
+      </c>
+      <c r="AH32">
+        <v>200.3</v>
+      </c>
+      <c r="AI32">
+        <v>203.05</v>
+      </c>
+      <c r="AJ32">
+        <v>203.3</v>
+      </c>
+      <c r="AK32">
+        <v>204</v>
+      </c>
+      <c r="AL32">
+        <v>198.7</v>
+      </c>
+    </row>
+    <row r="33" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>233.1</v>
+      </c>
+      <c r="K33">
+        <v>196</v>
+      </c>
+      <c r="L33">
+        <v>209.3</v>
+      </c>
+      <c r="M33">
+        <v>293.3</v>
+      </c>
+      <c r="N33">
+        <v>216</v>
+      </c>
+      <c r="O33">
+        <v>203.4</v>
+      </c>
+      <c r="P33">
+        <v>284</v>
+      </c>
+      <c r="Q33">
+        <v>218.5</v>
+      </c>
+      <c r="R33">
+        <v>192.85000000000002</v>
+      </c>
+      <c r="T33">
+        <v>235.9</v>
+      </c>
+      <c r="U33">
+        <v>250.8</v>
+      </c>
+      <c r="V33">
+        <v>268</v>
+      </c>
+      <c r="W33">
+        <v>279.45000000000005</v>
+      </c>
+      <c r="X33">
+        <v>226.35</v>
+      </c>
+      <c r="Y33">
+        <v>230.8</v>
+      </c>
+      <c r="Z33">
+        <v>255.6</v>
+      </c>
+      <c r="AA33">
+        <v>253.1</v>
+      </c>
+      <c r="AB33">
+        <v>230.3</v>
+      </c>
+      <c r="AD33">
+        <v>200.1</v>
+      </c>
+      <c r="AE33">
+        <v>187.64999999999998</v>
+      </c>
+      <c r="AF33">
+        <v>188.7</v>
+      </c>
+      <c r="AG33">
+        <v>186.89999999999998</v>
+      </c>
+      <c r="AH33">
+        <v>181.75</v>
+      </c>
+      <c r="AI33">
+        <v>189</v>
+      </c>
+      <c r="AJ33">
+        <v>199.65</v>
+      </c>
+      <c r="AK33">
+        <v>188.89999999999998</v>
+      </c>
+      <c r="AL33">
+        <v>187.25</v>
+      </c>
+    </row>
+    <row r="34" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>193.5</v>
+      </c>
+      <c r="K34">
+        <v>223.55</v>
+      </c>
+      <c r="L34">
+        <v>201.2</v>
+      </c>
+      <c r="M34">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="N34">
+        <v>199.05</v>
+      </c>
+      <c r="O34">
+        <v>206.35000000000002</v>
+      </c>
+      <c r="P34">
+        <v>241.8</v>
+      </c>
+      <c r="Q34">
+        <v>316</v>
+      </c>
+      <c r="R34">
+        <v>197.3</v>
+      </c>
+      <c r="T34">
+        <v>251.3</v>
+      </c>
+      <c r="U34">
+        <v>226.55</v>
+      </c>
+      <c r="V34">
+        <v>305.10000000000002</v>
+      </c>
+      <c r="W34">
+        <v>359</v>
+      </c>
+      <c r="X34">
+        <v>239.5</v>
+      </c>
+      <c r="Y34">
+        <v>242.2</v>
+      </c>
+      <c r="Z34">
+        <v>343.65</v>
+      </c>
+      <c r="AA34">
+        <v>304.85000000000002</v>
+      </c>
+      <c r="AB34">
+        <v>334.3</v>
+      </c>
+      <c r="AD34">
+        <v>212.35000000000002</v>
+      </c>
+      <c r="AE34">
+        <v>212.25</v>
+      </c>
+      <c r="AF34">
+        <v>230.4</v>
+      </c>
+      <c r="AG34">
+        <v>215.2</v>
+      </c>
+      <c r="AH34">
+        <v>183.85000000000002</v>
+      </c>
+      <c r="AI34">
+        <v>200.6</v>
+      </c>
+      <c r="AJ34">
+        <v>175.3</v>
+      </c>
+      <c r="AK34">
+        <v>227.85</v>
+      </c>
+      <c r="AL34">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>256.04999999999995</v>
+      </c>
+      <c r="K35">
+        <v>241.5</v>
+      </c>
+      <c r="L35">
+        <v>275.54999999999995</v>
+      </c>
+      <c r="M35">
+        <v>309</v>
+      </c>
+      <c r="N35">
+        <v>227.3</v>
+      </c>
+      <c r="O35">
+        <v>231.65</v>
+      </c>
+      <c r="P35">
+        <v>341.6</v>
+      </c>
+      <c r="Q35">
+        <v>244.3</v>
+      </c>
+      <c r="R35">
+        <v>255</v>
+      </c>
+      <c r="T35">
+        <v>238.5</v>
+      </c>
+      <c r="U35">
+        <v>245.7</v>
+      </c>
+      <c r="V35">
+        <v>279.7</v>
+      </c>
+      <c r="W35">
+        <v>295.3</v>
+      </c>
+      <c r="X35">
+        <v>225.8</v>
+      </c>
+      <c r="Y35">
+        <v>248.5</v>
+      </c>
+      <c r="Z35">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="AA35">
+        <v>265.14999999999998</v>
+      </c>
+      <c r="AB35">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="AD35">
+        <v>215.3</v>
+      </c>
+      <c r="AE35">
+        <v>215.35</v>
+      </c>
+      <c r="AF35">
+        <v>215.64999999999998</v>
+      </c>
+      <c r="AG35">
+        <v>233.6</v>
+      </c>
+      <c r="AH35">
+        <v>203.65</v>
+      </c>
+      <c r="AI35">
+        <v>209.60000000000002</v>
+      </c>
+      <c r="AJ35">
+        <v>210.5</v>
+      </c>
+      <c r="AK35">
+        <v>215.8</v>
+      </c>
+      <c r="AL35">
+        <v>225.8</v>
+      </c>
+    </row>
+    <row r="39" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>38</v>
+      </c>
+      <c r="R39" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" t="s">
+        <v>35</v>
+      </c>
+      <c r="V39" t="s">
+        <v>36</v>
+      </c>
+      <c r="W39" t="s">
+        <v>37</v>
+      </c>
+      <c r="X39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5536,7 +8736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL37"/>
   <sheetViews>
@@ -5544,9 +8744,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5638,7 +8838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5730,7 +8930,7 @@
         <v>185.46250000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5831,7 +9031,7 @@
         <v>259.22380952380951</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5932,7 +9132,7 @@
         <v>208.68400000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6033,7 +9233,7 @@
         <v>173.92941176470586</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6134,7 +9334,7 @@
         <v>209.74499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6235,7 +9435,7 @@
         <v>210.24545454545452</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6336,7 +9536,7 @@
         <v>200.80000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6437,7 +9637,7 @@
         <v>231.35000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>33</v>
       </c>
@@ -6529,7 +9729,7 @@
         <v>258.79999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6630,7 +9830,7 @@
         <v>198.63333333333338</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6731,7 +9931,7 @@
         <v>202.61111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6832,7 +10032,7 @@
         <v>224.32857142857139</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6933,7 +10133,7 @@
         <v>241.75</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -7025,7 +10225,7 @@
         <v>197.58571428571426</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7117,7 +10317,7 @@
         <v>230.0588235294118</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -7209,7 +10409,7 @@
         <v>198.40416666666661</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7301,7 +10501,7 @@
         <v>156.11249999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7393,7 +10593,7 @@
         <v>188.52380952380952</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J20" s="1">
         <v>179.98749999999998</v>
       </c>
@@ -7476,7 +10676,7 @@
         <v>185.29999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7568,7 +10768,7 @@
         <v>216.40588235294118</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7660,7 +10860,7 @@
         <v>204.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7752,7 +10952,7 @@
         <v>213.84999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7844,7 +11044,7 @@
         <v>214.9111111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7936,7 +11136,7 @@
         <v>170.74545454545452</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -8028,7 +11228,7 @@
         <v>214.60555555555558</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8120,7 +11320,7 @@
         <v>210.84545454545457</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8212,7 +11412,7 @@
         <v>202.12692307692305</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8304,7 +11504,7 @@
         <v>243.86666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J30" s="1">
         <v>235.09444444444443</v>
       </c>
@@ -8387,7 +11587,7 @@
         <v>212.25217391304344</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J31" s="2">
         <v>243.21999999999997</v>
       </c>
@@ -8470,7 +11670,7 @@
         <v>203.37500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="J32" s="1">
         <v>196.09047619047618</v>
       </c>
@@ -8553,7 +11753,7 @@
         <v>201.108</v>
       </c>
     </row>
-    <row r="33" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J33" s="2">
         <v>233.08846153846156</v>
       </c>
@@ -8636,7 +11836,7 @@
         <v>195.4909090909091</v>
       </c>
     </row>
-    <row r="34" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J34" s="1">
         <v>192.05384615384614</v>
       </c>
@@ -8719,7 +11919,7 @@
         <v>228.96666666666667</v>
       </c>
     </row>
-    <row r="35" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J35" s="2">
         <v>257.21111111111105</v>
       </c>
@@ -8802,7 +12002,7 @@
         <v>226.61052631578946</v>
       </c>
     </row>
-    <row r="37" spans="10:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:38" x14ac:dyDescent="0.25">
       <c r="J37">
         <f>AVERAGE(J2:J35)</f>
         <v>224.00814362115807</v>

--- a/nm2AllConds.xlsx
+++ b/nm2AllConds.xlsx
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:Y39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40:W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5540,10 +5540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8729,6 +8729,1298 @@
       </c>
       <c r="Y39" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>169</v>
+      </c>
+      <c r="M40">
+        <v>215.3</v>
+      </c>
+      <c r="N40">
+        <v>162.64999999999998</v>
+      </c>
+      <c r="O40">
+        <v>175.9</v>
+      </c>
+      <c r="P40">
+        <v>168.3</v>
+      </c>
+      <c r="Q40">
+        <v>188</v>
+      </c>
+      <c r="R40">
+        <v>212.64999999999998</v>
+      </c>
+      <c r="S40">
+        <v>227.4</v>
+      </c>
+      <c r="T40">
+        <v>236.7</v>
+      </c>
+      <c r="U40">
+        <v>166.2</v>
+      </c>
+      <c r="V40">
+        <v>168.4</v>
+      </c>
+      <c r="W40">
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="41" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>230.14999999999998</v>
+      </c>
+      <c r="M41">
+        <v>245.5</v>
+      </c>
+      <c r="N41">
+        <v>236.55</v>
+      </c>
+      <c r="O41">
+        <v>352.8</v>
+      </c>
+      <c r="P41">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="Q41">
+        <v>285.5</v>
+      </c>
+      <c r="R41">
+        <v>274.60000000000002</v>
+      </c>
+      <c r="S41">
+        <v>302.75</v>
+      </c>
+      <c r="T41">
+        <v>293.2</v>
+      </c>
+      <c r="U41">
+        <v>249.35000000000002</v>
+      </c>
+      <c r="V41">
+        <v>239.5</v>
+      </c>
+      <c r="W41">
+        <v>245.8</v>
+      </c>
+    </row>
+    <row r="42" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>167.5</v>
+      </c>
+      <c r="M42">
+        <v>225.1</v>
+      </c>
+      <c r="N42">
+        <v>170.35000000000002</v>
+      </c>
+      <c r="O42">
+        <v>176.8</v>
+      </c>
+      <c r="P42">
+        <v>175</v>
+      </c>
+      <c r="Q42">
+        <v>178.6</v>
+      </c>
+      <c r="R42">
+        <v>253.8</v>
+      </c>
+      <c r="S42">
+        <v>243.75</v>
+      </c>
+      <c r="T42">
+        <v>239.39999999999998</v>
+      </c>
+      <c r="U42">
+        <v>175.4</v>
+      </c>
+      <c r="V42">
+        <v>173.8</v>
+      </c>
+      <c r="W42">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="43" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="M43">
+        <v>206.2</v>
+      </c>
+      <c r="N43">
+        <v>168.3</v>
+      </c>
+      <c r="O43">
+        <v>177.3</v>
+      </c>
+      <c r="P43">
+        <v>171.15</v>
+      </c>
+      <c r="Q43">
+        <v>173.9</v>
+      </c>
+      <c r="R43">
+        <v>216.35000000000002</v>
+      </c>
+      <c r="S43">
+        <v>219.1</v>
+      </c>
+      <c r="T43">
+        <v>231.8</v>
+      </c>
+      <c r="U43">
+        <v>165.3</v>
+      </c>
+      <c r="V43">
+        <v>170.3</v>
+      </c>
+      <c r="W43">
+        <v>164.35000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>193.1</v>
+      </c>
+      <c r="M44">
+        <v>228.4</v>
+      </c>
+      <c r="N44">
+        <v>198.9</v>
+      </c>
+      <c r="O44">
+        <v>261.75</v>
+      </c>
+      <c r="P44">
+        <v>208.2</v>
+      </c>
+      <c r="Q44">
+        <v>211.4</v>
+      </c>
+      <c r="R44">
+        <v>258.60000000000002</v>
+      </c>
+      <c r="S44">
+        <v>260.8</v>
+      </c>
+      <c r="T44">
+        <v>264.89999999999998</v>
+      </c>
+      <c r="U44">
+        <v>206.3</v>
+      </c>
+      <c r="V44">
+        <v>200.7</v>
+      </c>
+      <c r="W44">
+        <v>207.45</v>
+      </c>
+    </row>
+    <row r="45" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>193.2</v>
+      </c>
+      <c r="M45">
+        <v>247.3</v>
+      </c>
+      <c r="N45">
+        <v>186.1</v>
+      </c>
+      <c r="O45">
+        <v>257</v>
+      </c>
+      <c r="P45">
+        <v>213.4</v>
+      </c>
+      <c r="Q45">
+        <v>218.8</v>
+      </c>
+      <c r="R45">
+        <v>241.8</v>
+      </c>
+      <c r="S45">
+        <v>258.39999999999998</v>
+      </c>
+      <c r="T45">
+        <v>256.45</v>
+      </c>
+      <c r="U45">
+        <v>197.4</v>
+      </c>
+      <c r="V45">
+        <v>204.25</v>
+      </c>
+      <c r="W45">
+        <v>201.05</v>
+      </c>
+    </row>
+    <row r="46" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>201.35</v>
+      </c>
+      <c r="M46">
+        <v>239.55</v>
+      </c>
+      <c r="N46">
+        <v>199.45</v>
+      </c>
+      <c r="O46">
+        <v>214.3</v>
+      </c>
+      <c r="P46">
+        <v>212.3</v>
+      </c>
+      <c r="Q46">
+        <v>217.05</v>
+      </c>
+      <c r="R46">
+        <v>248.6</v>
+      </c>
+      <c r="S46">
+        <v>252.85</v>
+      </c>
+      <c r="T46">
+        <v>248.55</v>
+      </c>
+      <c r="U46">
+        <v>208.10000000000002</v>
+      </c>
+      <c r="V46">
+        <v>197.9</v>
+      </c>
+      <c r="W46">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>226.5</v>
+      </c>
+      <c r="M47">
+        <v>238.45</v>
+      </c>
+      <c r="N47">
+        <v>208</v>
+      </c>
+      <c r="O47">
+        <v>370</v>
+      </c>
+      <c r="P47">
+        <v>259.5</v>
+      </c>
+      <c r="Q47">
+        <v>245.1</v>
+      </c>
+      <c r="R47">
+        <v>304.10000000000002</v>
+      </c>
+      <c r="S47">
+        <v>287.10000000000002</v>
+      </c>
+      <c r="T47">
+        <v>302.8</v>
+      </c>
+      <c r="U47">
+        <v>237.95</v>
+      </c>
+      <c r="V47">
+        <v>222.35</v>
+      </c>
+      <c r="W47">
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="48" spans="10:38" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>250.8</v>
+      </c>
+      <c r="M48">
+        <v>235.3</v>
+      </c>
+      <c r="N48">
+        <v>251.2</v>
+      </c>
+      <c r="O48">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="P48">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="Q48">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="R48">
+        <v>256.3</v>
+      </c>
+      <c r="S48">
+        <v>288.10000000000002</v>
+      </c>
+      <c r="T48">
+        <v>305.25</v>
+      </c>
+      <c r="U48">
+        <v>228.6</v>
+      </c>
+      <c r="V48">
+        <v>229.3</v>
+      </c>
+      <c r="W48">
+        <v>250.3</v>
+      </c>
+    </row>
+    <row r="49" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>186.8</v>
+      </c>
+      <c r="M49">
+        <v>233.4</v>
+      </c>
+      <c r="N49">
+        <v>195</v>
+      </c>
+      <c r="O49">
+        <v>211.7</v>
+      </c>
+      <c r="P49">
+        <v>194.9</v>
+      </c>
+      <c r="Q49">
+        <v>194.8</v>
+      </c>
+      <c r="R49">
+        <v>248.15</v>
+      </c>
+      <c r="S49">
+        <v>249.60000000000002</v>
+      </c>
+      <c r="T49">
+        <v>249.60000000000002</v>
+      </c>
+      <c r="U49">
+        <v>193.7</v>
+      </c>
+      <c r="V49">
+        <v>190.64999999999998</v>
+      </c>
+      <c r="W49">
+        <v>195.05</v>
+      </c>
+    </row>
+    <row r="50" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>170.45</v>
+      </c>
+      <c r="M50">
+        <v>230.3</v>
+      </c>
+      <c r="N50">
+        <v>164.8</v>
+      </c>
+      <c r="O50">
+        <v>260.60000000000002</v>
+      </c>
+      <c r="P50">
+        <v>175.8</v>
+      </c>
+      <c r="Q50">
+        <v>179.85</v>
+      </c>
+      <c r="R50">
+        <v>244.75</v>
+      </c>
+      <c r="S50">
+        <v>245.3</v>
+      </c>
+      <c r="T50">
+        <v>237.2</v>
+      </c>
+      <c r="U50">
+        <v>174.15</v>
+      </c>
+      <c r="V50">
+        <v>173.6</v>
+      </c>
+      <c r="W50">
+        <v>178.55</v>
+      </c>
+    </row>
+    <row r="51" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>211.55</v>
+      </c>
+      <c r="M51">
+        <v>231</v>
+      </c>
+      <c r="N51">
+        <v>197.4</v>
+      </c>
+      <c r="O51">
+        <v>313</v>
+      </c>
+      <c r="P51">
+        <v>243.05</v>
+      </c>
+      <c r="Q51">
+        <v>238.9</v>
+      </c>
+      <c r="R51">
+        <v>255.8</v>
+      </c>
+      <c r="S51">
+        <v>308.35000000000002</v>
+      </c>
+      <c r="T51">
+        <v>333.2</v>
+      </c>
+      <c r="U51">
+        <v>227.1</v>
+      </c>
+      <c r="V51">
+        <v>215.55</v>
+      </c>
+      <c r="W51">
+        <v>209.95</v>
+      </c>
+    </row>
+    <row r="52" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>230</v>
+      </c>
+      <c r="M52">
+        <v>229.3</v>
+      </c>
+      <c r="N52">
+        <v>202.3</v>
+      </c>
+      <c r="O52">
+        <v>230.3</v>
+      </c>
+      <c r="P52">
+        <v>238.1</v>
+      </c>
+      <c r="Q52">
+        <v>222.2</v>
+      </c>
+      <c r="R52">
+        <v>254.8</v>
+      </c>
+      <c r="S52">
+        <v>280</v>
+      </c>
+      <c r="T52">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="U52">
+        <v>209.45</v>
+      </c>
+      <c r="V52">
+        <v>206.4</v>
+      </c>
+      <c r="W52">
+        <v>212.7</v>
+      </c>
+    </row>
+    <row r="53" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>182.7</v>
+      </c>
+      <c r="M53">
+        <v>234.6</v>
+      </c>
+      <c r="N53">
+        <v>182</v>
+      </c>
+      <c r="O53">
+        <v>247.3</v>
+      </c>
+      <c r="P53">
+        <v>205.4</v>
+      </c>
+      <c r="Q53">
+        <v>230.5</v>
+      </c>
+      <c r="R53">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="S53">
+        <v>244.7</v>
+      </c>
+      <c r="T53">
+        <v>256.75</v>
+      </c>
+      <c r="U53">
+        <v>199.14999999999998</v>
+      </c>
+      <c r="V53">
+        <v>197.85000000000002</v>
+      </c>
+      <c r="W53">
+        <v>188.7</v>
+      </c>
+    </row>
+    <row r="54" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>184.2</v>
+      </c>
+      <c r="M54">
+        <v>221.5</v>
+      </c>
+      <c r="N54">
+        <v>194.8</v>
+      </c>
+      <c r="O54">
+        <v>381</v>
+      </c>
+      <c r="P54">
+        <v>217.9</v>
+      </c>
+      <c r="Q54">
+        <v>209.5</v>
+      </c>
+      <c r="R54">
+        <v>246.5</v>
+      </c>
+      <c r="S54">
+        <v>293.5</v>
+      </c>
+      <c r="T54">
+        <v>342.8</v>
+      </c>
+      <c r="U54">
+        <v>201.9</v>
+      </c>
+      <c r="V54">
+        <v>191.7</v>
+      </c>
+      <c r="W54">
+        <v>196.7</v>
+      </c>
+    </row>
+    <row r="55" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>180.9</v>
+      </c>
+      <c r="M55">
+        <v>207.45</v>
+      </c>
+      <c r="N55">
+        <v>180.6</v>
+      </c>
+      <c r="O55">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="P55">
+        <v>238.35</v>
+      </c>
+      <c r="Q55">
+        <v>223.15</v>
+      </c>
+      <c r="R55">
+        <v>233.95</v>
+      </c>
+      <c r="S55">
+        <v>242.3</v>
+      </c>
+      <c r="T55">
+        <v>270.25</v>
+      </c>
+      <c r="U55">
+        <v>207.75</v>
+      </c>
+      <c r="V55">
+        <v>188.05</v>
+      </c>
+      <c r="W55">
+        <v>195.6</v>
+      </c>
+    </row>
+    <row r="56" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>158.5</v>
+      </c>
+      <c r="M56">
+        <v>189.4</v>
+      </c>
+      <c r="N56">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="O56">
+        <v>159</v>
+      </c>
+      <c r="P56">
+        <v>153.9</v>
+      </c>
+      <c r="Q56">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="R56">
+        <v>200.5</v>
+      </c>
+      <c r="S56">
+        <v>204</v>
+      </c>
+      <c r="T56">
+        <v>197.05</v>
+      </c>
+      <c r="U56">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="V56">
+        <v>154.1</v>
+      </c>
+      <c r="W56">
+        <v>153.1</v>
+      </c>
+    </row>
+    <row r="57" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>170.2</v>
+      </c>
+      <c r="M57">
+        <v>217.5</v>
+      </c>
+      <c r="N57">
+        <v>170.35</v>
+      </c>
+      <c r="O57">
+        <v>185.25</v>
+      </c>
+      <c r="P57">
+        <v>177.4</v>
+      </c>
+      <c r="Q57">
+        <v>177.25</v>
+      </c>
+      <c r="R57">
+        <v>221.65</v>
+      </c>
+      <c r="S57">
+        <v>220.1</v>
+      </c>
+      <c r="T57">
+        <v>229.89999999999998</v>
+      </c>
+      <c r="U57">
+        <v>181.85000000000002</v>
+      </c>
+      <c r="V57">
+        <v>168.3</v>
+      </c>
+      <c r="W57">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="58" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>167.9</v>
+      </c>
+      <c r="M58">
+        <v>211.4</v>
+      </c>
+      <c r="N58">
+        <v>164.95</v>
+      </c>
+      <c r="O58">
+        <v>180.8</v>
+      </c>
+      <c r="P58">
+        <v>164.9</v>
+      </c>
+      <c r="Q58">
+        <v>173.4</v>
+      </c>
+      <c r="R58">
+        <v>220.35</v>
+      </c>
+      <c r="S58">
+        <v>223.5</v>
+      </c>
+      <c r="T58">
+        <v>235.1</v>
+      </c>
+      <c r="U58">
+        <v>170.65</v>
+      </c>
+      <c r="V58">
+        <v>165.05</v>
+      </c>
+      <c r="W58">
+        <v>168.3</v>
+      </c>
+    </row>
+    <row r="59" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>215.5</v>
+      </c>
+      <c r="M59">
+        <v>231.55</v>
+      </c>
+      <c r="N59">
+        <v>207.14999999999998</v>
+      </c>
+      <c r="O59">
+        <v>277.2</v>
+      </c>
+      <c r="P59">
+        <v>266</v>
+      </c>
+      <c r="Q59">
+        <v>235.7</v>
+      </c>
+      <c r="R59">
+        <v>252.1</v>
+      </c>
+      <c r="S59">
+        <v>254.85000000000002</v>
+      </c>
+      <c r="T59">
+        <v>269.45</v>
+      </c>
+      <c r="U59">
+        <v>229.45</v>
+      </c>
+      <c r="V59">
+        <v>217.1</v>
+      </c>
+      <c r="W59">
+        <v>218.85</v>
+      </c>
+    </row>
+    <row r="60" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>194.05</v>
+      </c>
+      <c r="M60">
+        <v>226.7</v>
+      </c>
+      <c r="N60">
+        <v>177.2</v>
+      </c>
+      <c r="O60">
+        <v>205.2</v>
+      </c>
+      <c r="P60">
+        <v>206.5</v>
+      </c>
+      <c r="Q60">
+        <v>197.15</v>
+      </c>
+      <c r="R60">
+        <v>272.10000000000002</v>
+      </c>
+      <c r="S60">
+        <v>269.25</v>
+      </c>
+      <c r="T60">
+        <v>258.79999999999995</v>
+      </c>
+      <c r="U60">
+        <v>202.2</v>
+      </c>
+      <c r="V60">
+        <v>190.7</v>
+      </c>
+      <c r="W60">
+        <v>186.2</v>
+      </c>
+    </row>
+    <row r="61" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>195</v>
+      </c>
+      <c r="M61">
+        <v>236.05</v>
+      </c>
+      <c r="N61">
+        <v>199.05</v>
+      </c>
+      <c r="O61">
+        <v>242.25</v>
+      </c>
+      <c r="P61">
+        <v>202.9</v>
+      </c>
+      <c r="Q61">
+        <v>205.1</v>
+      </c>
+      <c r="R61">
+        <v>238</v>
+      </c>
+      <c r="S61">
+        <v>249.7</v>
+      </c>
+      <c r="T61">
+        <v>269</v>
+      </c>
+      <c r="U61">
+        <v>209.2</v>
+      </c>
+      <c r="V61">
+        <v>197.8</v>
+      </c>
+      <c r="W61">
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="62" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>184.25</v>
+      </c>
+      <c r="M62">
+        <v>225.55</v>
+      </c>
+      <c r="N62">
+        <v>186.15</v>
+      </c>
+      <c r="O62">
+        <v>231.7</v>
+      </c>
+      <c r="P62">
+        <v>253.55</v>
+      </c>
+      <c r="Q62">
+        <v>257.29999999999995</v>
+      </c>
+      <c r="R62">
+        <v>266.20000000000005</v>
+      </c>
+      <c r="S62">
+        <v>238.8</v>
+      </c>
+      <c r="T62">
+        <v>255.5</v>
+      </c>
+      <c r="U62">
+        <v>210.75</v>
+      </c>
+      <c r="V62">
+        <v>203.4</v>
+      </c>
+      <c r="W62">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="63" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>170.8</v>
+      </c>
+      <c r="M63">
+        <v>208.35</v>
+      </c>
+      <c r="N63">
+        <v>172.7</v>
+      </c>
+      <c r="O63">
+        <v>200.8</v>
+      </c>
+      <c r="P63">
+        <v>181.1</v>
+      </c>
+      <c r="Q63">
+        <v>174.5</v>
+      </c>
+      <c r="R63">
+        <v>205.5</v>
+      </c>
+      <c r="S63">
+        <v>220.2</v>
+      </c>
+      <c r="T63">
+        <v>243.3</v>
+      </c>
+      <c r="U63">
+        <v>176.5</v>
+      </c>
+      <c r="V63">
+        <v>173.45</v>
+      </c>
+      <c r="W63">
+        <v>168.4</v>
+      </c>
+    </row>
+    <row r="64" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>226.3</v>
+      </c>
+      <c r="M64">
+        <v>237.1</v>
+      </c>
+      <c r="N64">
+        <v>213.5</v>
+      </c>
+      <c r="O64">
+        <v>277.8</v>
+      </c>
+      <c r="P64">
+        <v>241.6</v>
+      </c>
+      <c r="Q64">
+        <v>224.3</v>
+      </c>
+      <c r="R64">
+        <v>265</v>
+      </c>
+      <c r="S64">
+        <v>282.2</v>
+      </c>
+      <c r="T64">
+        <v>313.5</v>
+      </c>
+      <c r="U64">
+        <v>223.1</v>
+      </c>
+      <c r="V64">
+        <v>229.6</v>
+      </c>
+      <c r="W64">
+        <v>222.8</v>
+      </c>
+    </row>
+    <row r="65" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>221.1</v>
+      </c>
+      <c r="M65">
+        <v>232.25</v>
+      </c>
+      <c r="N65">
+        <v>209.5</v>
+      </c>
+      <c r="O65">
+        <v>237.75</v>
+      </c>
+      <c r="P65">
+        <v>227.8</v>
+      </c>
+      <c r="Q65">
+        <v>220.9</v>
+      </c>
+      <c r="R65">
+        <v>244.1</v>
+      </c>
+      <c r="S65">
+        <v>249.25</v>
+      </c>
+      <c r="T65">
+        <v>268.25</v>
+      </c>
+      <c r="U65">
+        <v>194.39999999999998</v>
+      </c>
+      <c r="V65">
+        <v>199.89999999999998</v>
+      </c>
+      <c r="W65">
+        <v>208.9</v>
+      </c>
+    </row>
+    <row r="66" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>191.65</v>
+      </c>
+      <c r="M66">
+        <v>220.3</v>
+      </c>
+      <c r="N66">
+        <v>183.9</v>
+      </c>
+      <c r="O66">
+        <v>198.9</v>
+      </c>
+      <c r="P66">
+        <v>185.25</v>
+      </c>
+      <c r="Q66">
+        <v>197.3</v>
+      </c>
+      <c r="R66">
+        <v>251.75</v>
+      </c>
+      <c r="S66">
+        <v>255.5</v>
+      </c>
+      <c r="T66">
+        <v>253.5</v>
+      </c>
+      <c r="U66">
+        <v>190.15</v>
+      </c>
+      <c r="V66">
+        <v>188.6</v>
+      </c>
+      <c r="W66">
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="67" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>181.6</v>
+      </c>
+      <c r="M67">
+        <v>239</v>
+      </c>
+      <c r="N67">
+        <v>180.65</v>
+      </c>
+      <c r="O67">
+        <v>314.60000000000002</v>
+      </c>
+      <c r="P67">
+        <v>216.3</v>
+      </c>
+      <c r="Q67">
+        <v>250.65</v>
+      </c>
+      <c r="R67">
+        <v>252.3</v>
+      </c>
+      <c r="S67">
+        <v>262.8</v>
+      </c>
+      <c r="T67">
+        <v>257.3</v>
+      </c>
+      <c r="U67">
+        <v>194.95</v>
+      </c>
+      <c r="V67">
+        <v>203.4</v>
+      </c>
+      <c r="W67">
+        <v>199.7</v>
+      </c>
+    </row>
+    <row r="68" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>223.25</v>
+      </c>
+      <c r="M68">
+        <v>235.89999999999998</v>
+      </c>
+      <c r="N68">
+        <v>208.7</v>
+      </c>
+      <c r="O68">
+        <v>218.35000000000002</v>
+      </c>
+      <c r="P68">
+        <v>229.5</v>
+      </c>
+      <c r="Q68">
+        <v>244.75</v>
+      </c>
+      <c r="R68">
+        <v>254.6</v>
+      </c>
+      <c r="S68">
+        <v>267.54999999999995</v>
+      </c>
+      <c r="T68">
+        <v>289.2</v>
+      </c>
+      <c r="U68">
+        <v>206.4</v>
+      </c>
+      <c r="V68">
+        <v>210.8</v>
+      </c>
+      <c r="W68">
+        <v>217.45</v>
+      </c>
+    </row>
+    <row r="69" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>200.2</v>
+      </c>
+      <c r="M69">
+        <v>224.5</v>
+      </c>
+      <c r="N69">
+        <v>194.8</v>
+      </c>
+      <c r="O69">
+        <v>228.8</v>
+      </c>
+      <c r="P69">
+        <v>217.15</v>
+      </c>
+      <c r="Q69">
+        <v>208</v>
+      </c>
+      <c r="R69">
+        <v>239.2</v>
+      </c>
+      <c r="S69">
+        <v>262</v>
+      </c>
+      <c r="T69">
+        <v>247.9</v>
+      </c>
+      <c r="U69">
+        <v>211.8</v>
+      </c>
+      <c r="V69">
+        <v>208.3</v>
+      </c>
+      <c r="W69">
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="70" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>189.2</v>
+      </c>
+      <c r="M70">
+        <v>240.8</v>
+      </c>
+      <c r="N70">
+        <v>186.85000000000002</v>
+      </c>
+      <c r="O70">
+        <v>232.5</v>
+      </c>
+      <c r="P70">
+        <v>212.2</v>
+      </c>
+      <c r="Q70">
+        <v>201.1</v>
+      </c>
+      <c r="R70">
+        <v>248.8</v>
+      </c>
+      <c r="S70">
+        <v>279.75</v>
+      </c>
+      <c r="T70">
+        <v>278.64999999999998</v>
+      </c>
+      <c r="U70">
+        <v>204.5</v>
+      </c>
+      <c r="V70">
+        <v>194.35000000000002</v>
+      </c>
+      <c r="W70">
+        <v>196.6</v>
+      </c>
+    </row>
+    <row r="71" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>189.2</v>
+      </c>
+      <c r="M71">
+        <v>219.65</v>
+      </c>
+      <c r="N71">
+        <v>173.85</v>
+      </c>
+      <c r="O71">
+        <v>230.4</v>
+      </c>
+      <c r="P71">
+        <v>202.25</v>
+      </c>
+      <c r="Q71">
+        <v>203.6</v>
+      </c>
+      <c r="R71">
+        <v>243.7</v>
+      </c>
+      <c r="S71">
+        <v>236.2</v>
+      </c>
+      <c r="T71">
+        <v>268</v>
+      </c>
+      <c r="U71">
+        <v>189</v>
+      </c>
+      <c r="V71">
+        <v>190.1</v>
+      </c>
+      <c r="W71">
+        <v>187.1</v>
+      </c>
+    </row>
+    <row r="72" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>200.1</v>
+      </c>
+      <c r="M72">
+        <v>236.5</v>
+      </c>
+      <c r="N72">
+        <v>191.95</v>
+      </c>
+      <c r="O72">
+        <v>301.8</v>
+      </c>
+      <c r="P72">
+        <v>223.6</v>
+      </c>
+      <c r="Q72">
+        <v>201.1</v>
+      </c>
+      <c r="R72">
+        <v>239.8</v>
+      </c>
+      <c r="S72">
+        <v>303.10000000000002</v>
+      </c>
+      <c r="T72">
+        <v>307</v>
+      </c>
+      <c r="U72">
+        <v>196.65</v>
+      </c>
+      <c r="V72">
+        <v>205.3</v>
+      </c>
+      <c r="W72">
+        <v>220.6</v>
+      </c>
+    </row>
+    <row r="73" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>241.4</v>
+      </c>
+      <c r="M73">
+        <v>206.5</v>
+      </c>
+      <c r="N73">
+        <v>186.7</v>
+      </c>
+      <c r="O73">
+        <v>307.8</v>
+      </c>
+      <c r="P73">
+        <v>242.5</v>
+      </c>
+      <c r="Q73">
+        <v>239.7</v>
+      </c>
+      <c r="R73">
+        <v>237.3</v>
+      </c>
+      <c r="S73">
+        <v>262.14999999999998</v>
+      </c>
+      <c r="T73">
+        <v>287.39999999999998</v>
+      </c>
+      <c r="U73">
+        <v>210.6</v>
+      </c>
+      <c r="V73">
+        <v>210.9</v>
+      </c>
+      <c r="W73">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/nm2AllConds.xlsx
+++ b/nm2AllConds.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen52\Documents\GitHub\Psychophysics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allenine\Documents\GitHub\Psychophysics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data From Script - Means" sheetId="1" r:id="rId1"/>
     <sheet name="Data From Script - Medians" sheetId="3" r:id="rId2"/>
     <sheet name="Colored Table - Means" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -548,9 +548,9 @@
       <selection activeCell="J39" sqref="J39:Y39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -734,7 +734,7 @@
         <v>185.46250000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
         <v>259.22380952380951</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -936,7 +936,7 @@
         <v>208.68400000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>173.92941176470586</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>209.74499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>210.24545454545452</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>200.80000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>231.35000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>33</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>258.79999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>199.57500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>202.61111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>224.32857142857139</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>241.75</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>197.58571428571426</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>230.0588235294118</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>198.40416666666661</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>156.4478260869565</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>188.52380952380952</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>179.98749999999998</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>185.29999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>216.40588235294118</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>204.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>213.84999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>214.9111111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>170.74545454545452</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>214.60555555555558</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>210.84545454545457</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>202.12692307692305</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>243.86666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J30">
         <v>235.09444444444443</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>212.25217391304344</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J31">
         <v>243.21999999999997</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>203.37500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>196.09047619047618</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>201.108</v>
       </c>
     </row>
-    <row r="33" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J33">
         <v>233.08846153846156</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>195.4909090909091</v>
       </c>
     </row>
-    <row r="34" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J34">
         <v>192.05384615384614</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>228.96666666666667</v>
       </c>
     </row>
-    <row r="35" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J35">
         <v>257.21111111111105</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>226.61052631578946</v>
       </c>
     </row>
-    <row r="37" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J37">
         <f>AVERAGE(J2:J35)</f>
         <v>224.00814362115807</v>
@@ -3924,7 +3924,7 @@
         <v>209.49075065608022</v>
       </c>
     </row>
-    <row r="39" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L39" t="s">
         <v>27</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L40">
         <v>181.94711864406784</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L41">
         <v>240.89183673469375</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L42">
         <v>187.25000000000003</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L43">
         <v>166.32222222222231</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L44">
         <v>222.07046632124349</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L45">
         <v>213.415824915825</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L46">
         <v>210.06329787234048</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L47">
         <v>232.60080321285139</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L48">
         <v>264.32211055276389</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L49">
         <v>222.93409090909097</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L50">
         <v>183.95486111111106</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L51">
         <v>238.68526315789481</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L52">
         <v>258.33505154639175</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L53">
         <v>189.68762214983707</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L54">
         <v>200.57236180904525</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L55">
         <v>192.91785714285714</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L56">
         <v>165.70684210526323</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L57">
         <v>178.72565445026166</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L58">
         <v>178.53210702341147</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L59">
         <v>229.97986577181214</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L60">
         <v>207.9260135135134</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L61">
         <v>215.11450777202074</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L62">
         <v>200.5362416107383</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L63">
         <v>179.89424083769643</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L64">
         <v>241.04874371859302</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L65">
         <v>230.81015228426398</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L66">
         <v>211.53787878787878</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L67">
         <v>192.79893048128326</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L68">
         <v>239.83484848484855</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L69">
         <v>213.11717171717169</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L70">
         <v>193.30558375634519</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L71">
         <v>208.3743589743591</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L72">
         <v>208.84247491638789</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="12:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L73">
         <v>246.58241206030158</v>
       </c>
@@ -5542,13 +5542,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="G32" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>174.14999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>245.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>168.3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>213.7</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>202.8</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6308,7 +6308,7 @@
         <v>202.2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>236.3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>35</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>237.2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>195.60000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>189.2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>201.55</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>227.5</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>194.6</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>216.9</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>201.55</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>152.6</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>179.9</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>173.45</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>218.7</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>191.6</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>216.9</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>199.7</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>166.64999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>209.25</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>196.85</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>207.2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J30">
         <v>242.1</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>210.4</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J31">
         <v>232.9</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>206.3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>186.7</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>198.7</v>
       </c>
     </row>
-    <row r="33" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J33">
         <v>233.1</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>187.25</v>
       </c>
     </row>
-    <row r="34" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J34">
         <v>193.5</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J35">
         <v>256.04999999999995</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>225.8</v>
       </c>
     </row>
-    <row r="39" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:38" x14ac:dyDescent="0.3">
       <c r="L39" t="s">
         <v>27</v>
       </c>
@@ -8744,9 +8744,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>185.46250000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>259.22380952380951</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>208.68400000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>173.92941176470586</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9334,7 +9334,7 @@
         <v>209.74499999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>210.24545454545452</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>200.80000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>231.35000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>33</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>258.79999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>198.63333333333338</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>202.61111111111111</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>224.32857142857139</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>241.75</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>197.58571428571426</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>230.0588235294118</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>198.40416666666661</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>156.11249999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>188.52380952380952</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J20" s="1">
         <v>179.98749999999998</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>185.29999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>216.40588235294118</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>204.7</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>213.84999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>214.9111111111111</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>170.74545454545452</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>214.60555555555558</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>210.84545454545457</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>202.12692307692305</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -11504,7 +11504,7 @@
         <v>243.86666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J30" s="1">
         <v>235.09444444444443</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>212.25217391304344</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J31" s="2">
         <v>243.21999999999997</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>203.37500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="J32" s="1">
         <v>196.09047619047618</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>201.108</v>
       </c>
     </row>
-    <row r="33" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J33" s="2">
         <v>233.08846153846156</v>
       </c>
@@ -11836,7 +11836,7 @@
         <v>195.4909090909091</v>
       </c>
     </row>
-    <row r="34" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J34" s="1">
         <v>192.05384615384614</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>228.96666666666667</v>
       </c>
     </row>
-    <row r="35" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J35" s="2">
         <v>257.21111111111105</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>226.61052631578946</v>
       </c>
     </row>
-    <row r="37" spans="10:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:38" x14ac:dyDescent="0.3">
       <c r="J37">
         <f>AVERAGE(J2:J35)</f>
         <v>224.00814362115807</v>

--- a/nm2AllConds.xlsx
+++ b/nm2AllConds.xlsx
@@ -5543,7 +5543,7 @@
   <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
